--- a/docs/CartaGantt_Maquina_de_ventas.xlsx
+++ b/docs/CartaGantt_Maquina_de_ventas.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desar\Desktop\proy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\Desktop\siquesi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD8899-128A-4862-8EDD-100157B7B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09B38E-AC44-48E8-89E5-3CE576A49602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="6470" windowHeight="11370" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="6200" yWindow="0" windowWidth="13090" windowHeight="11370" firstSheet="2" activeTab="2" xr2:uid="{C723281C-8F4F-46B8-87EC-E0367F0BCC75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" firstSheet="1" activeTab="1" xr2:uid="{C723281C-8F4F-46B8-87EC-E0367F0BCC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Gantt simple - EX" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="181">
   <si>
     <t>PLANTILLA DE DIAGRAMA DE GANTT SIMPLE</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Tabla integraciones disponibles, dos columnas, acciones modal conectar</t>
   </si>
   <si>
-    <t>Deben ir todas las fuentes?</t>
-  </si>
-  <si>
     <t>Administrador Script</t>
   </si>
   <si>
@@ -560,16 +557,10 @@
     <t xml:space="preserve">Formulario prospecto modal previsualizar con tablas 4 columnas modal eliminar. Tabla tres columnas modal eliminar. </t>
   </si>
   <si>
-    <t>what is propension cierre?</t>
-  </si>
-  <si>
     <t>Sin commentarios</t>
   </si>
   <si>
     <t>Preguntar este modulo</t>
-  </si>
-  <si>
-    <t>Backend</t>
   </si>
   <si>
     <t>Formulario taller de variables. Tabla listado variables, 6 columnas, acciones modal editar, eliminar, activar/desactivar. Formulario prueba de variables, dos tablas.</t>
@@ -1487,7 +1478,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1731,32 +1722,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,6 +1744,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1784,6 +1756,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,20 +2061,22 @@
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AB20" sqref="AB20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="30.3046875" customWidth="1"/>
-    <col min="4" max="4" width="11.69140625" customWidth="1"/>
-    <col min="5" max="7" width="9.84375" customWidth="1"/>
-    <col min="8" max="8" width="14.4609375" customWidth="1"/>
-    <col min="9" max="68" width="3.3046875" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="68" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" s="46" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:68" s="46" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2108,34 +2095,34 @@
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
     </row>
-    <row r="2" spans="2:68" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:68" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="79"/>
     </row>
-    <row r="3" spans="2:68" s="1" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:68" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="78"/>
     </row>
-    <row r="4" spans="2:68" s="1" customFormat="1" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:68" s="1" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="2:68" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:68" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="91"/>
     </row>
-    <row r="6" spans="2:68" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:68" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:68" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2143,76 +2130,76 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="119" t="s">
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="122" t="s">
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
-      <c r="AV7" s="120"/>
-      <c r="AW7" s="120"/>
-      <c r="AX7" s="120"/>
-      <c r="AY7" s="120"/>
-      <c r="AZ7" s="120"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="124" t="s">
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="BC7" s="120"/>
-      <c r="BD7" s="120"/>
-      <c r="BE7" s="120"/>
-      <c r="BF7" s="120"/>
-      <c r="BG7" s="120"/>
-      <c r="BH7" s="120"/>
-      <c r="BI7" s="120"/>
-      <c r="BJ7" s="120"/>
-      <c r="BK7" s="120"/>
-      <c r="BL7" s="120"/>
-      <c r="BM7" s="120"/>
-      <c r="BN7" s="120"/>
-      <c r="BO7" s="120"/>
-      <c r="BP7" s="121"/>
-    </row>
-    <row r="8" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="107"/>
+      <c r="BI7" s="107"/>
+      <c r="BJ7" s="107"/>
+      <c r="BK7" s="107"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="108"/>
+    </row>
+    <row r="8" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2234,84 +2221,84 @@
       <c r="H8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="118" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="113"/>
       <c r="K8" s="113"/>
       <c r="L8" s="113"/>
       <c r="M8" s="114"/>
-      <c r="N8" s="128" t="s">
+      <c r="N8" s="117" t="s">
         <v>15</v>
       </c>
       <c r="O8" s="113"/>
       <c r="P8" s="113"/>
       <c r="Q8" s="113"/>
       <c r="R8" s="114"/>
-      <c r="S8" s="128" t="s">
+      <c r="S8" s="117" t="s">
         <v>16</v>
       </c>
       <c r="T8" s="113"/>
       <c r="U8" s="113"/>
       <c r="V8" s="113"/>
       <c r="W8" s="114"/>
-      <c r="X8" s="117" t="s">
+      <c r="X8" s="122" t="s">
         <v>17</v>
       </c>
       <c r="Y8" s="113"/>
       <c r="Z8" s="113"/>
       <c r="AA8" s="113"/>
       <c r="AB8" s="114"/>
-      <c r="AC8" s="118" t="s">
+      <c r="AC8" s="123" t="s">
         <v>18</v>
       </c>
       <c r="AD8" s="113"/>
       <c r="AE8" s="113"/>
       <c r="AF8" s="113"/>
       <c r="AG8" s="114"/>
-      <c r="AH8" s="118" t="s">
+      <c r="AH8" s="123" t="s">
         <v>19</v>
       </c>
       <c r="AI8" s="113"/>
       <c r="AJ8" s="113"/>
       <c r="AK8" s="113"/>
       <c r="AL8" s="114"/>
-      <c r="AM8" s="112" t="s">
+      <c r="AM8" s="119" t="s">
         <v>20</v>
       </c>
       <c r="AN8" s="113"/>
       <c r="AO8" s="113"/>
       <c r="AP8" s="113"/>
       <c r="AQ8" s="114"/>
-      <c r="AR8" s="125" t="s">
+      <c r="AR8" s="112" t="s">
         <v>21</v>
       </c>
       <c r="AS8" s="113"/>
       <c r="AT8" s="113"/>
       <c r="AU8" s="113"/>
       <c r="AV8" s="114"/>
-      <c r="AW8" s="125" t="s">
+      <c r="AW8" s="112" t="s">
         <v>22</v>
       </c>
       <c r="AX8" s="113"/>
       <c r="AY8" s="113"/>
       <c r="AZ8" s="113"/>
       <c r="BA8" s="114"/>
-      <c r="BB8" s="126" t="s">
+      <c r="BB8" s="115" t="s">
         <v>23</v>
       </c>
       <c r="BC8" s="113"/>
       <c r="BD8" s="113"/>
       <c r="BE8" s="113"/>
       <c r="BF8" s="114"/>
-      <c r="BG8" s="127" t="s">
+      <c r="BG8" s="116" t="s">
         <v>24</v>
       </c>
       <c r="BH8" s="113"/>
       <c r="BI8" s="113"/>
       <c r="BJ8" s="113"/>
       <c r="BK8" s="114"/>
-      <c r="BL8" s="127" t="s">
+      <c r="BL8" s="116" t="s">
         <v>25</v>
       </c>
       <c r="BM8" s="113"/>
@@ -2319,7 +2306,7 @@
       <c r="BO8" s="113"/>
       <c r="BP8" s="114"/>
     </row>
-    <row r="9" spans="2:68" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
@@ -2522,7 +2509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:68" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>1</v>
       </c>
@@ -2598,7 +2585,7 @@
       <c r="BO10" s="22"/>
       <c r="BP10" s="24"/>
     </row>
-    <row r="11" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="53">
         <v>1.1000000000000001</v>
       </c>
@@ -2682,7 +2669,7 @@
       <c r="BO11" s="26"/>
       <c r="BP11" s="31"/>
     </row>
-    <row r="12" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>39</v>
       </c>
@@ -2766,7 +2753,7 @@
       <c r="BO12" s="26"/>
       <c r="BP12" s="31"/>
     </row>
-    <row r="13" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="53">
         <v>1.2</v>
       </c>
@@ -2850,7 +2837,7 @@
       <c r="BO13" s="26"/>
       <c r="BP13" s="31"/>
     </row>
-    <row r="14" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="53">
         <v>1.3</v>
       </c>
@@ -2934,7 +2921,7 @@
       <c r="BO14" s="26"/>
       <c r="BP14" s="31"/>
     </row>
-    <row r="15" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="53">
         <v>1.4</v>
       </c>
@@ -3018,7 +3005,7 @@
       <c r="BO15" s="26"/>
       <c r="BP15" s="31"/>
     </row>
-    <row r="16" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="53">
         <v>1.5</v>
       </c>
@@ -3102,7 +3089,7 @@
       <c r="BO16" s="26"/>
       <c r="BP16" s="31"/>
     </row>
-    <row r="17" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53">
         <v>1.6</v>
       </c>
@@ -3186,7 +3173,7 @@
       <c r="BO17" s="26"/>
       <c r="BP17" s="31"/>
     </row>
-    <row r="18" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53">
         <v>2</v>
       </c>
@@ -3262,7 +3249,7 @@
       <c r="BO18" s="22"/>
       <c r="BP18" s="24"/>
     </row>
-    <row r="19" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53">
         <v>2.1</v>
       </c>
@@ -3346,7 +3333,7 @@
       <c r="BO19" s="26"/>
       <c r="BP19" s="31"/>
     </row>
-    <row r="20" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53">
         <v>2.2000000000000002</v>
       </c>
@@ -3430,7 +3417,7 @@
       <c r="BO20" s="26"/>
       <c r="BP20" s="31"/>
     </row>
-    <row r="21" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="53">
         <v>2.2999999999999998</v>
       </c>
@@ -3510,7 +3497,7 @@
       <c r="BO21" s="26"/>
       <c r="BP21" s="31"/>
     </row>
-    <row r="22" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="53">
         <v>2.4</v>
       </c>
@@ -3590,7 +3577,7 @@
       <c r="BO22" s="26"/>
       <c r="BP22" s="31"/>
     </row>
-    <row r="23" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53">
         <v>3</v>
       </c>
@@ -3666,7 +3653,7 @@
       <c r="BO23" s="22"/>
       <c r="BP23" s="24"/>
     </row>
-    <row r="24" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="53">
         <v>3.1</v>
       </c>
@@ -3746,7 +3733,7 @@
       <c r="BO24" s="26"/>
       <c r="BP24" s="31"/>
     </row>
-    <row r="25" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53">
         <v>3.2</v>
       </c>
@@ -3826,7 +3813,7 @@
       <c r="BO25" s="26"/>
       <c r="BP25" s="31"/>
     </row>
-    <row r="26" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
         <v>59</v>
       </c>
@@ -3906,7 +3893,7 @@
       <c r="BO26" s="26"/>
       <c r="BP26" s="31"/>
     </row>
-    <row r="27" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="s">
         <v>61</v>
       </c>
@@ -3988,7 +3975,7 @@
       <c r="BO27" s="26"/>
       <c r="BP27" s="31"/>
     </row>
-    <row r="28" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="53">
         <v>3.3</v>
       </c>
@@ -4068,7 +4055,7 @@
       <c r="BO28" s="26"/>
       <c r="BP28" s="31"/>
     </row>
-    <row r="29" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
         <v>65</v>
       </c>
@@ -4148,7 +4135,7 @@
       <c r="BO29" s="26"/>
       <c r="BP29" s="31"/>
     </row>
-    <row r="30" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="53">
         <v>4</v>
       </c>
@@ -4224,7 +4211,7 @@
       <c r="BO30" s="22"/>
       <c r="BP30" s="24"/>
     </row>
-    <row r="31" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53">
         <v>4.0999999999999996</v>
       </c>
@@ -4304,7 +4291,7 @@
       <c r="BO31" s="26"/>
       <c r="BP31" s="31"/>
     </row>
-    <row r="32" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53">
         <v>4.2</v>
       </c>
@@ -4384,7 +4371,7 @@
       <c r="BO32" s="26"/>
       <c r="BP32" s="31"/>
     </row>
-    <row r="33" spans="2:68" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53">
         <v>4.3</v>
       </c>
@@ -4464,7 +4451,7 @@
       <c r="BO33" s="26"/>
       <c r="BP33" s="31"/>
     </row>
-    <row r="34" spans="2:68" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="61" t="s">
         <v>71</v>
       </c>
@@ -4544,82 +4531,86 @@
       <c r="BO34" s="35"/>
       <c r="BP34" s="40"/>
     </row>
-    <row r="36" spans="2:68" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="115" t="s">
+    <row r="36" spans="2:68" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="116"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="116"/>
-      <c r="AG36" s="116"/>
-      <c r="AH36" s="116"/>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="116"/>
-      <c r="AK36" s="116"/>
-      <c r="AL36" s="116"/>
-      <c r="AM36" s="116"/>
-      <c r="AN36" s="116"/>
-      <c r="AO36" s="116"/>
-      <c r="AP36" s="116"/>
-      <c r="AQ36" s="116"/>
-      <c r="AR36" s="116"/>
-      <c r="AS36" s="116"/>
-      <c r="AT36" s="116"/>
-      <c r="AU36" s="116"/>
-      <c r="AV36" s="116"/>
-      <c r="AW36" s="116"/>
-      <c r="AX36" s="116"/>
-      <c r="AY36" s="116"/>
-      <c r="AZ36" s="116"/>
-      <c r="BA36" s="116"/>
-      <c r="BB36" s="116"/>
-      <c r="BC36" s="116"/>
-      <c r="BD36" s="116"/>
-      <c r="BE36" s="116"/>
-      <c r="BF36" s="116"/>
-      <c r="BG36" s="116"/>
-      <c r="BH36" s="116"/>
-      <c r="BI36" s="116"/>
-      <c r="BJ36" s="116"/>
-      <c r="BK36" s="116"/>
-      <c r="BL36" s="116"/>
-      <c r="BM36" s="116"/>
-      <c r="BN36" s="116"/>
-      <c r="BO36" s="116"/>
-      <c r="BP36" s="116"/>
-    </row>
-    <row r="42" spans="2:68" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="121"/>
+      <c r="AC36" s="121"/>
+      <c r="AD36" s="121"/>
+      <c r="AE36" s="121"/>
+      <c r="AF36" s="121"/>
+      <c r="AG36" s="121"/>
+      <c r="AH36" s="121"/>
+      <c r="AI36" s="121"/>
+      <c r="AJ36" s="121"/>
+      <c r="AK36" s="121"/>
+      <c r="AL36" s="121"/>
+      <c r="AM36" s="121"/>
+      <c r="AN36" s="121"/>
+      <c r="AO36" s="121"/>
+      <c r="AP36" s="121"/>
+      <c r="AQ36" s="121"/>
+      <c r="AR36" s="121"/>
+      <c r="AS36" s="121"/>
+      <c r="AT36" s="121"/>
+      <c r="AU36" s="121"/>
+      <c r="AV36" s="121"/>
+      <c r="AW36" s="121"/>
+      <c r="AX36" s="121"/>
+      <c r="AY36" s="121"/>
+      <c r="AZ36" s="121"/>
+      <c r="BA36" s="121"/>
+      <c r="BB36" s="121"/>
+      <c r="BC36" s="121"/>
+      <c r="BD36" s="121"/>
+      <c r="BE36" s="121"/>
+      <c r="BF36" s="121"/>
+      <c r="BG36" s="121"/>
+      <c r="BH36" s="121"/>
+      <c r="BI36" s="121"/>
+      <c r="BJ36" s="121"/>
+      <c r="BK36" s="121"/>
+      <c r="BL36" s="121"/>
+      <c r="BM36" s="121"/>
+      <c r="BN36" s="121"/>
+      <c r="BO36" s="121"/>
+      <c r="BP36" s="121"/>
+    </row>
+    <row r="42" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B36:BP36"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AL8"/>
     <mergeCell ref="X7:AL7"/>
     <mergeCell ref="AM7:BA7"/>
     <mergeCell ref="I7:W7"/>
@@ -4633,10 +4624,6 @@
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="B36:BP36"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AL8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H34">
     <cfRule type="dataBar" priority="2">
@@ -4662,26 +4649,28 @@
   </sheetPr>
   <dimension ref="B1:CY45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BG31" sqref="BG31"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" customWidth="1"/>
-    <col min="2" max="2" width="23.15234375" customWidth="1"/>
-    <col min="3" max="3" width="46.15234375" customWidth="1"/>
-    <col min="4" max="4" width="19.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.84375" customWidth="1"/>
-    <col min="6" max="6" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="103" width="3.3046875" customWidth="1"/>
+    <col min="9" max="103" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:103" s="46" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:103" s="46" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="47" t="s">
         <v>117</v>
       </c>
@@ -4700,7 +4689,7 @@
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
     </row>
-    <row r="2" spans="2:103" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:103" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
@@ -4708,7 +4697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:103" s="1" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:103" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
@@ -4716,7 +4705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:103" s="1" customFormat="1" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:103" s="1" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
@@ -4724,18 +4713,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:103" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:103" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="91">
-        <v>45338</v>
-      </c>
-    </row>
-    <row r="6" spans="2:103" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="6" spans="2:103" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:103" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4743,111 +4732,111 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="119" t="s">
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="122" t="s">
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AX7" s="120"/>
-      <c r="AY7" s="120"/>
-      <c r="AZ7" s="120"/>
-      <c r="BA7" s="120"/>
-      <c r="BB7" s="120"/>
-      <c r="BC7" s="120"/>
-      <c r="BD7" s="120"/>
-      <c r="BE7" s="120"/>
-      <c r="BF7" s="120"/>
-      <c r="BG7" s="120"/>
-      <c r="BH7" s="120"/>
-      <c r="BI7" s="120"/>
-      <c r="BJ7" s="120"/>
-      <c r="BK7" s="120"/>
-      <c r="BL7" s="120"/>
-      <c r="BM7" s="120"/>
-      <c r="BN7" s="120"/>
-      <c r="BO7" s="120"/>
-      <c r="BP7" s="120"/>
-      <c r="BQ7" s="120"/>
-      <c r="BR7" s="120"/>
-      <c r="BS7" s="120"/>
-      <c r="BT7" s="120"/>
-      <c r="BU7" s="120"/>
-      <c r="BV7" s="120"/>
-      <c r="BW7" s="120"/>
-      <c r="BX7" s="120"/>
-      <c r="BY7" s="120"/>
-      <c r="BZ7" s="121"/>
-      <c r="CA7" s="124" t="s">
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="107"/>
+      <c r="BI7" s="107"/>
+      <c r="BJ7" s="107"/>
+      <c r="BK7" s="107"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="107"/>
+      <c r="BV7" s="107"/>
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="107"/>
+      <c r="BZ7" s="108"/>
+      <c r="CA7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="CB7" s="120"/>
-      <c r="CC7" s="120"/>
-      <c r="CD7" s="120"/>
-      <c r="CE7" s="120"/>
-      <c r="CF7" s="120"/>
-      <c r="CG7" s="120"/>
-      <c r="CH7" s="120"/>
-      <c r="CI7" s="120"/>
-      <c r="CJ7" s="120"/>
-      <c r="CK7" s="120"/>
-      <c r="CL7" s="120"/>
-      <c r="CM7" s="120"/>
-      <c r="CN7" s="120"/>
-      <c r="CO7" s="120"/>
-      <c r="CP7" s="120"/>
-      <c r="CQ7" s="120"/>
-      <c r="CR7" s="120"/>
-      <c r="CS7" s="120"/>
-      <c r="CT7" s="120"/>
-      <c r="CU7" s="120"/>
-      <c r="CV7" s="120"/>
-      <c r="CW7" s="120"/>
-      <c r="CX7" s="120"/>
-      <c r="CY7" s="121"/>
-    </row>
-    <row r="8" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CB7" s="107"/>
+      <c r="CC7" s="107"/>
+      <c r="CD7" s="107"/>
+      <c r="CE7" s="107"/>
+      <c r="CF7" s="107"/>
+      <c r="CG7" s="107"/>
+      <c r="CH7" s="107"/>
+      <c r="CI7" s="107"/>
+      <c r="CJ7" s="107"/>
+      <c r="CK7" s="107"/>
+      <c r="CL7" s="107"/>
+      <c r="CM7" s="107"/>
+      <c r="CN7" s="107"/>
+      <c r="CO7" s="107"/>
+      <c r="CP7" s="107"/>
+      <c r="CQ7" s="107"/>
+      <c r="CR7" s="107"/>
+      <c r="CS7" s="107"/>
+      <c r="CT7" s="107"/>
+      <c r="CU7" s="107"/>
+      <c r="CV7" s="107"/>
+      <c r="CW7" s="107"/>
+      <c r="CX7" s="107"/>
+      <c r="CY7" s="108"/>
+    </row>
+    <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -4869,133 +4858,133 @@
       <c r="H8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="118" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="113"/>
       <c r="K8" s="113"/>
       <c r="L8" s="113"/>
       <c r="M8" s="114"/>
-      <c r="N8" s="128" t="s">
+      <c r="N8" s="117" t="s">
         <v>15</v>
       </c>
       <c r="O8" s="113"/>
       <c r="P8" s="113"/>
       <c r="Q8" s="113"/>
       <c r="R8" s="114"/>
-      <c r="S8" s="128" t="s">
+      <c r="S8" s="117" t="s">
         <v>16</v>
       </c>
       <c r="T8" s="113"/>
       <c r="U8" s="113"/>
       <c r="V8" s="113"/>
       <c r="W8" s="114"/>
-      <c r="X8" s="117" t="s">
+      <c r="X8" s="122" t="s">
         <v>17</v>
       </c>
       <c r="Y8" s="113"/>
       <c r="Z8" s="113"/>
       <c r="AA8" s="113"/>
       <c r="AB8" s="114"/>
-      <c r="AC8" s="118" t="s">
+      <c r="AC8" s="123" t="s">
         <v>18</v>
       </c>
       <c r="AD8" s="113"/>
       <c r="AE8" s="113"/>
       <c r="AF8" s="113"/>
       <c r="AG8" s="114"/>
-      <c r="AH8" s="118" t="s">
+      <c r="AH8" s="123" t="s">
         <v>19</v>
       </c>
       <c r="AI8" s="113"/>
       <c r="AJ8" s="113"/>
       <c r="AK8" s="113"/>
       <c r="AL8" s="114"/>
-      <c r="AM8" s="118" t="s">
+      <c r="AM8" s="123" t="s">
         <v>19</v>
       </c>
       <c r="AN8" s="113"/>
       <c r="AO8" s="113"/>
       <c r="AP8" s="113"/>
       <c r="AQ8" s="114"/>
-      <c r="AR8" s="118" t="s">
+      <c r="AR8" s="123" t="s">
         <v>20</v>
       </c>
       <c r="AS8" s="113"/>
       <c r="AT8" s="113"/>
       <c r="AU8" s="113"/>
       <c r="AV8" s="114"/>
-      <c r="AW8" s="112" t="s">
+      <c r="AW8" s="119" t="s">
         <v>20</v>
       </c>
       <c r="AX8" s="113"/>
       <c r="AY8" s="113"/>
       <c r="AZ8" s="113"/>
       <c r="BA8" s="114"/>
-      <c r="BB8" s="125" t="s">
+      <c r="BB8" s="112" t="s">
         <v>21</v>
       </c>
       <c r="BC8" s="113"/>
       <c r="BD8" s="113"/>
       <c r="BE8" s="113"/>
       <c r="BF8" s="114"/>
-      <c r="BG8" s="125" t="s">
+      <c r="BG8" s="112" t="s">
         <v>22</v>
       </c>
       <c r="BH8" s="113"/>
       <c r="BI8" s="113"/>
       <c r="BJ8" s="113"/>
       <c r="BK8" s="114"/>
-      <c r="BL8" s="125" t="s">
+      <c r="BL8" s="112" t="s">
         <v>23</v>
       </c>
       <c r="BM8" s="113"/>
       <c r="BN8" s="113"/>
       <c r="BO8" s="113"/>
       <c r="BP8" s="114"/>
-      <c r="BQ8" s="125" t="s">
+      <c r="BQ8" s="112" t="s">
         <v>24</v>
       </c>
       <c r="BR8" s="113"/>
       <c r="BS8" s="113"/>
       <c r="BT8" s="113"/>
       <c r="BU8" s="114"/>
-      <c r="BV8" s="125" t="s">
+      <c r="BV8" s="112" t="s">
         <v>25</v>
       </c>
       <c r="BW8" s="113"/>
       <c r="BX8" s="113"/>
       <c r="BY8" s="113"/>
       <c r="BZ8" s="114"/>
-      <c r="CA8" s="126" t="s">
+      <c r="CA8" s="115" t="s">
         <v>23</v>
       </c>
       <c r="CB8" s="113"/>
       <c r="CC8" s="113"/>
       <c r="CD8" s="113"/>
       <c r="CE8" s="114"/>
-      <c r="CF8" s="127" t="s">
+      <c r="CF8" s="116" t="s">
         <v>24</v>
       </c>
       <c r="CG8" s="113"/>
       <c r="CH8" s="113"/>
       <c r="CI8" s="113"/>
       <c r="CJ8" s="114"/>
-      <c r="CK8" s="127" t="s">
+      <c r="CK8" s="116" t="s">
         <v>25</v>
       </c>
       <c r="CL8" s="113"/>
       <c r="CM8" s="113"/>
       <c r="CN8" s="113"/>
       <c r="CO8" s="114"/>
-      <c r="CP8" s="127" t="s">
+      <c r="CP8" s="116" t="s">
         <v>114</v>
       </c>
       <c r="CQ8" s="113"/>
       <c r="CR8" s="113"/>
       <c r="CS8" s="113"/>
       <c r="CT8" s="114"/>
-      <c r="CU8" s="127" t="s">
+      <c r="CU8" s="116" t="s">
         <v>115</v>
       </c>
       <c r="CV8" s="113"/>
@@ -5003,7 +4992,7 @@
       <c r="CX8" s="113"/>
       <c r="CY8" s="114"/>
     </row>
-    <row r="9" spans="2:103" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:103" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
@@ -5311,7 +5300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:103" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>1</v>
       </c>
@@ -5422,7 +5411,7 @@
       <c r="CX10" s="22"/>
       <c r="CY10" s="24"/>
     </row>
-    <row r="11" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>96</v>
       </c>
@@ -5433,30 +5422,30 @@
         <v>119</v>
       </c>
       <c r="E11" s="96">
-        <v>45343</v>
+        <v>45342</v>
       </c>
       <c r="F11" s="97">
-        <v>45328</v>
+        <v>45344</v>
       </c>
       <c r="G11" s="85">
         <f>IF(F11-E11=0,"",F11-E11)</f>
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="H11" s="70">
         <v>0</v>
       </c>
       <c r="I11" s="65"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
@@ -5541,7 +5530,7 @@
       <c r="CX11" s="26"/>
       <c r="CY11" s="31"/>
     </row>
-    <row r="12" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>97</v>
       </c>
@@ -5552,14 +5541,14 @@
         <v>119</v>
       </c>
       <c r="E12" s="96">
-        <v>45327</v>
+        <v>45344</v>
       </c>
       <c r="F12" s="97">
-        <v>45328</v>
+        <v>45346</v>
       </c>
       <c r="G12" s="85">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="70">
         <v>0</v>
@@ -5567,15 +5556,15 @@
       <c r="I12" s="65"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
@@ -5660,7 +5649,7 @@
       <c r="CX12" s="26"/>
       <c r="CY12" s="31"/>
     </row>
-    <row r="13" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
         <v>98</v>
       </c>
@@ -5671,14 +5660,14 @@
         <v>119</v>
       </c>
       <c r="E13" s="96">
-        <v>45328</v>
+        <v>45348</v>
       </c>
       <c r="F13" s="97">
-        <v>45331</v>
+        <v>45350</v>
       </c>
       <c r="G13" s="85">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="70">
         <v>0</v>
@@ -5688,16 +5677,16 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="82"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
@@ -5779,7 +5768,7 @@
       <c r="CX13" s="26"/>
       <c r="CY13" s="31"/>
     </row>
-    <row r="14" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>99</v>
       </c>
@@ -5790,10 +5779,10 @@
         <v>119</v>
       </c>
       <c r="E14" s="96">
-        <v>45330</v>
+        <v>45350</v>
       </c>
       <c r="F14" s="97">
-        <v>45331</v>
+        <v>45351</v>
       </c>
       <c r="G14" s="85">
         <f t="shared" si="0"/>
@@ -5809,14 +5798,14 @@
       <c r="M14" s="26"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="P14" s="80"/>
       <c r="Q14" s="27"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="82"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
@@ -5898,7 +5887,7 @@
       <c r="CX14" s="26"/>
       <c r="CY14" s="31"/>
     </row>
-    <row r="15" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -6009,7 +5998,7 @@
       <c r="CX15" s="22"/>
       <c r="CY15" s="24"/>
     </row>
-    <row r="16" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
         <v>100</v>
       </c>
@@ -6020,14 +6009,14 @@
         <v>119</v>
       </c>
       <c r="E16" s="96">
-        <v>45334</v>
+        <v>45351</v>
       </c>
       <c r="F16" s="97">
-        <v>45336</v>
+        <v>45355</v>
       </c>
       <c r="G16" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="70">
         <v>0</v>
@@ -6040,16 +6029,16 @@
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="28"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="29"/>
@@ -6128,7 +6117,7 @@
       <c r="CX16" s="26"/>
       <c r="CY16" s="31"/>
     </row>
-    <row r="17" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
         <v>101</v>
       </c>
@@ -6139,10 +6128,10 @@
         <v>119</v>
       </c>
       <c r="E17" s="96">
-        <v>45336</v>
+        <v>45355</v>
       </c>
       <c r="F17" s="97">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="G17" s="85">
         <f t="shared" si="0"/>
@@ -6161,16 +6150,16 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
       <c r="W17" s="28"/>
-      <c r="X17" s="25"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="29"/>
@@ -6247,21 +6236,21 @@
       <c r="CX17" s="26"/>
       <c r="CY17" s="31"/>
     </row>
-    <row r="18" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="96">
-        <v>45341</v>
+        <v>45357</v>
       </c>
       <c r="F18" s="97">
-        <v>45343</v>
+        <v>45359</v>
       </c>
       <c r="G18" s="85">
         <f t="shared" si="0"/>
@@ -6282,17 +6271,17 @@
       <c r="R18" s="27"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
       <c r="W18" s="28"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
       <c r="AG18" s="29"/>
       <c r="AH18" s="26"/>
@@ -6366,25 +6355,25 @@
       <c r="CX18" s="26"/>
       <c r="CY18" s="31"/>
     </row>
-    <row r="19" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="96">
-        <v>45343</v>
+        <v>45359</v>
       </c>
       <c r="F19" s="97">
-        <v>45345</v>
+        <v>45363</v>
       </c>
       <c r="G19" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="70">
         <v>0</v>
@@ -6402,18 +6391,17 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="25"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="32"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
@@ -6485,21 +6473,21 @@
       <c r="CX19" s="26"/>
       <c r="CY19" s="31"/>
     </row>
-    <row r="20" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E20" s="96">
-        <v>45348</v>
+        <v>45363</v>
       </c>
       <c r="F20" s="97">
-        <v>45350</v>
+        <v>45365</v>
       </c>
       <c r="G20" s="85">
         <f t="shared" si="0"/>
@@ -6524,17 +6512,17 @@
       <c r="V20" s="26"/>
       <c r="W20" s="28"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
       <c r="AJ20" s="26"/>
       <c r="AK20" s="26"/>
       <c r="AL20" s="26"/>
@@ -6604,7 +6592,7 @@
       <c r="CX20" s="26"/>
       <c r="CY20" s="31"/>
     </row>
-    <row r="21" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
         <v>105</v>
       </c>
@@ -6615,14 +6603,14 @@
         <v>119</v>
       </c>
       <c r="E21" s="96">
-        <v>45350</v>
+        <v>45365</v>
       </c>
       <c r="F21" s="97">
-        <v>45352</v>
+        <v>45370</v>
       </c>
       <c r="G21" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="70">
         <v>0</v>
@@ -6645,17 +6633,18 @@
       <c r="X21" s="25"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="29"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="29"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="29"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
       <c r="AM21" s="29"/>
       <c r="AN21" s="29"/>
       <c r="AO21" s="29"/>
@@ -6722,7 +6711,7 @@
       <c r="CX21" s="26"/>
       <c r="CY21" s="31"/>
     </row>
-    <row r="22" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
         <v>106</v>
       </c>
@@ -6733,14 +6722,14 @@
         <v>119</v>
       </c>
       <c r="E22" s="96">
-        <v>45352</v>
+        <v>45370</v>
       </c>
       <c r="F22" s="97">
-        <v>45356</v>
+        <v>45373</v>
       </c>
       <c r="G22" s="85">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="70">
         <v>0</v>
@@ -6766,16 +6755,16 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
       <c r="AG22" s="29"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
       <c r="AJ22" s="26"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="29"/>
       <c r="AN22" s="29"/>
       <c r="AO22" s="29"/>
       <c r="AP22" s="29"/>
@@ -6841,7 +6830,7 @@
       <c r="CX22" s="26"/>
       <c r="CY22" s="31"/>
     </row>
-    <row r="23" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>107</v>
       </c>
@@ -6852,14 +6841,14 @@
         <v>119</v>
       </c>
       <c r="E23" s="96">
-        <v>45356</v>
+        <v>45373</v>
       </c>
       <c r="F23" s="97">
-        <v>45358</v>
+        <v>45378</v>
       </c>
       <c r="G23" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23" s="70">
         <v>0</v>
@@ -6888,15 +6877,15 @@
       <c r="AD23" s="29"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
       <c r="AJ23" s="26"/>
       <c r="AK23" s="26"/>
       <c r="AL23" s="26"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
       <c r="AP23" s="29"/>
       <c r="AQ23" s="29"/>
       <c r="AR23" s="26"/>
@@ -6960,25 +6949,25 @@
       <c r="CX23" s="26"/>
       <c r="CY23" s="31"/>
     </row>
-    <row r="24" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="96">
-        <v>45358</v>
+        <v>45378</v>
       </c>
       <c r="F24" s="97">
-        <v>45362</v>
+        <v>45383</v>
       </c>
       <c r="G24" s="85">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="70">
         <v>0</v>
@@ -7010,19 +6999,19 @@
       <c r="AG24" s="29"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
       <c r="AM24" s="29"/>
       <c r="AN24" s="29"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
       <c r="AR24" s="26"/>
       <c r="AS24" s="26"/>
       <c r="AT24" s="26"/>
       <c r="AU24" s="26"/>
-      <c r="AV24" s="28"/>
+      <c r="AV24" s="26"/>
       <c r="AW24" s="25"/>
       <c r="AX24" s="26"/>
       <c r="AY24" s="26"/>
@@ -7079,25 +7068,25 @@
       <c r="CX24" s="26"/>
       <c r="CY24" s="31"/>
     </row>
-    <row r="25" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E25" s="96">
-        <v>45362</v>
+        <v>45383</v>
       </c>
       <c r="F25" s="97">
-        <v>45364</v>
+        <v>45386</v>
       </c>
       <c r="G25" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="70">
         <v>0</v>
@@ -7132,16 +7121,16 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="26"/>
       <c r="AL25" s="26"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
       <c r="AP25" s="29"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="33"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
       <c r="AT25" s="26"/>
       <c r="AU25" s="26"/>
-      <c r="AV25" s="28"/>
+      <c r="AV25" s="26"/>
       <c r="AW25" s="25"/>
       <c r="AX25" s="26"/>
       <c r="AY25" s="26"/>
@@ -7198,25 +7187,25 @@
       <c r="CX25" s="26"/>
       <c r="CY25" s="31"/>
     </row>
-    <row r="26" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E26" s="96">
-        <v>45364</v>
+        <v>45386</v>
       </c>
       <c r="F26" s="97">
-        <v>45366</v>
+        <v>45391</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="70">
         <v>0</v>
@@ -7254,13 +7243,13 @@
       <c r="AM26" s="29"/>
       <c r="AN26" s="29"/>
       <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="28"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
       <c r="AW26" s="25"/>
       <c r="AX26" s="26"/>
       <c r="AY26" s="26"/>
@@ -7317,7 +7306,7 @@
       <c r="CX26" s="26"/>
       <c r="CY26" s="31"/>
     </row>
-    <row r="27" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53">
         <v>3</v>
       </c>
@@ -7428,7 +7417,7 @@
       <c r="CX27" s="22"/>
       <c r="CY27" s="24"/>
     </row>
-    <row r="28" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="53" t="s">
         <v>111</v>
       </c>
@@ -7439,14 +7428,14 @@
         <v>119</v>
       </c>
       <c r="E28" s="96">
-        <v>45370</v>
+        <v>45391</v>
       </c>
       <c r="F28" s="97">
-        <v>45373</v>
+        <v>45397</v>
       </c>
       <c r="G28" s="85">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28" s="70">
         <v>0</v>
@@ -7487,15 +7476,15 @@
       <c r="AP28" s="29"/>
       <c r="AQ28" s="29"/>
       <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="28"/>
-      <c r="AW28" s="106"/>
-      <c r="AX28" s="107"/>
-      <c r="AY28" s="105"/>
-      <c r="AZ28" s="105"/>
-      <c r="BA28" s="105"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="104"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
       <c r="BB28" s="44"/>
       <c r="BC28" s="44"/>
       <c r="BD28" s="44"/>
@@ -7547,25 +7536,25 @@
       <c r="CX28" s="26"/>
       <c r="CY28" s="31"/>
     </row>
-    <row r="29" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="96">
-        <v>45373</v>
+        <v>45397</v>
       </c>
       <c r="F29" s="97">
-        <v>45378</v>
+        <v>45401</v>
       </c>
       <c r="G29" s="85">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" s="70">
         <v>0</v>
@@ -7611,12 +7600,13 @@
       <c r="AU29" s="26"/>
       <c r="AV29" s="28"/>
       <c r="AW29" s="25"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="BA29" s="105"/>
-      <c r="BB29" s="105"/>
-      <c r="BC29" s="105"/>
-      <c r="BD29" s="105"/>
+      <c r="AX29" s="104"/>
+      <c r="AY29" s="104"/>
+      <c r="AZ29" s="104"/>
+      <c r="BA29" s="104"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
       <c r="BE29" s="44"/>
       <c r="BF29" s="44"/>
       <c r="BG29" s="26"/>
@@ -7665,25 +7655,25 @@
       <c r="CX29" s="26"/>
       <c r="CY29" s="31"/>
     </row>
-    <row r="30" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E30" s="96">
-        <v>45378</v>
+        <v>45401</v>
       </c>
       <c r="F30" s="97">
-        <v>45383</v>
+        <v>45408</v>
       </c>
       <c r="G30" s="85">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30" s="70">
         <v>0</v>
@@ -7733,12 +7723,12 @@
       <c r="AY30" s="26"/>
       <c r="AZ30" s="26"/>
       <c r="BA30" s="26"/>
-      <c r="BB30" s="44"/>
-      <c r="BC30" s="103"/>
-      <c r="BD30" s="105"/>
-      <c r="BE30" s="105"/>
-      <c r="BF30" s="105"/>
-      <c r="BG30" s="105"/>
+      <c r="BB30" s="104"/>
+      <c r="BC30" s="104"/>
+      <c r="BD30" s="104"/>
+      <c r="BE30" s="104"/>
+      <c r="BF30" s="104"/>
+      <c r="BG30" s="26"/>
       <c r="BH30" s="26"/>
       <c r="BI30" s="26"/>
       <c r="BJ30" s="26"/>
@@ -7784,25 +7774,25 @@
       <c r="CX30" s="26"/>
       <c r="CY30" s="31"/>
     </row>
-    <row r="31" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E31" s="96">
-        <v>45383</v>
+        <v>45408</v>
       </c>
       <c r="F31" s="97">
-        <v>45385</v>
+        <v>45418</v>
       </c>
       <c r="G31" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H31" s="70">
         <v>0</v>
@@ -7857,23 +7847,23 @@
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
       <c r="BD31" s="44"/>
-      <c r="BE31" s="102"/>
-      <c r="BF31" s="102"/>
-      <c r="BG31" s="105"/>
-      <c r="BH31" s="105"/>
-      <c r="BI31" s="105"/>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="109"/>
-      <c r="BL31" s="108"/>
-      <c r="BM31" s="108"/>
-      <c r="BN31" s="108"/>
-      <c r="BO31" s="108"/>
-      <c r="BP31" s="108"/>
-      <c r="BQ31" s="108"/>
-      <c r="BR31" s="108"/>
-      <c r="BS31" s="108"/>
-      <c r="BT31" s="108"/>
-      <c r="BU31" s="108"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="104"/>
+      <c r="BH31" s="104"/>
+      <c r="BI31" s="104"/>
+      <c r="BJ31" s="104"/>
+      <c r="BK31" s="104"/>
+      <c r="BL31" s="105"/>
+      <c r="BM31" s="105"/>
+      <c r="BN31" s="105"/>
+      <c r="BO31" s="105"/>
+      <c r="BP31" s="105"/>
+      <c r="BQ31" s="105"/>
+      <c r="BR31" s="105"/>
+      <c r="BS31" s="105"/>
+      <c r="BT31" s="105"/>
+      <c r="BU31" s="105"/>
       <c r="BV31" s="26"/>
       <c r="BW31" s="26"/>
       <c r="BX31" s="26"/>
@@ -7905,7 +7895,7 @@
       <c r="CX31" s="26"/>
       <c r="CY31" s="31"/>
     </row>
-    <row r="32" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
         <v>113</v>
       </c>
@@ -7916,14 +7906,14 @@
         <v>119</v>
       </c>
       <c r="E32" s="96">
-        <v>45385</v>
+        <v>45418</v>
       </c>
       <c r="F32" s="97">
-        <v>45390</v>
+        <v>45425</v>
       </c>
       <c r="G32" s="85">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H32" s="70">
         <v>0</v>
@@ -7976,18 +7966,18 @@
       <c r="BB32" s="44"/>
       <c r="BC32" s="44"/>
       <c r="BD32" s="44"/>
-      <c r="BE32" s="102"/>
-      <c r="BF32" s="102"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="44"/>
       <c r="BG32" s="26"/>
       <c r="BH32" s="26"/>
-      <c r="BI32" s="105"/>
-      <c r="BJ32" s="105"/>
-      <c r="BK32" s="105"/>
-      <c r="BL32" s="105"/>
-      <c r="BM32" s="102"/>
-      <c r="BN32" s="102"/>
-      <c r="BO32" s="102"/>
-      <c r="BP32" s="102"/>
+      <c r="BI32" s="26"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="104"/>
+      <c r="BM32" s="104"/>
+      <c r="BN32" s="104"/>
+      <c r="BO32" s="104"/>
+      <c r="BP32" s="104"/>
       <c r="BQ32" s="102"/>
       <c r="BR32" s="102"/>
       <c r="BS32" s="102"/>
@@ -8024,12 +8014,12 @@
       <c r="CX32" s="26"/>
       <c r="CY32" s="31"/>
     </row>
-    <row r="33" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53">
         <v>4</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="94"/>
@@ -8135,9 +8125,9 @@
       <c r="CX33" s="22"/>
       <c r="CY33" s="24"/>
     </row>
-    <row r="34" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:103" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>77</v>
@@ -8146,14 +8136,14 @@
         <v>119</v>
       </c>
       <c r="E34" s="96">
-        <v>45405</v>
+        <v>45425</v>
       </c>
       <c r="F34" s="97">
-        <v>45412</v>
+        <v>45434</v>
       </c>
       <c r="G34" s="85">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H34" s="70">
         <v>0</v>
@@ -8218,22 +8208,22 @@
       <c r="BN34" s="44"/>
       <c r="BO34" s="44"/>
       <c r="BP34" s="44"/>
-      <c r="BQ34" s="44"/>
-      <c r="BR34" s="44"/>
-      <c r="BS34" s="44"/>
-      <c r="BT34" s="44"/>
-      <c r="BU34" s="44"/>
-      <c r="BV34" s="26"/>
-      <c r="BW34" s="26"/>
+      <c r="BQ34" s="104"/>
+      <c r="BR34" s="104"/>
+      <c r="BS34" s="104"/>
+      <c r="BT34" s="104"/>
+      <c r="BU34" s="104"/>
+      <c r="BV34" s="104"/>
+      <c r="BW34" s="104"/>
       <c r="BX34" s="26"/>
       <c r="BY34" s="26"/>
       <c r="BZ34" s="28"/>
       <c r="CA34" s="25"/>
-      <c r="CC34" s="81"/>
-      <c r="CD34" s="81"/>
-      <c r="CE34" s="81"/>
-      <c r="CF34" s="81"/>
-      <c r="CG34" s="81"/>
+      <c r="CC34" s="35"/>
+      <c r="CD34" s="35"/>
+      <c r="CE34" s="35"/>
+      <c r="CF34" s="30"/>
+      <c r="CG34" s="30"/>
       <c r="CH34" s="30"/>
       <c r="CI34" s="30"/>
       <c r="CJ34" s="30"/>
@@ -8253,9 +8243,9 @@
       <c r="CX34" s="26"/>
       <c r="CY34" s="31"/>
     </row>
-    <row r="35" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C35" s="54" t="s">
         <v>147</v>
@@ -8264,14 +8254,14 @@
         <v>119</v>
       </c>
       <c r="E35" s="96">
-        <v>45412</v>
+        <v>45434</v>
       </c>
       <c r="F35" s="97">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="G35" s="85">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H35" s="70">
         <v>0</v>
@@ -8343,21 +8333,21 @@
       <c r="BU35" s="44"/>
       <c r="BV35" s="26"/>
       <c r="BW35" s="26"/>
-      <c r="BX35" s="26"/>
-      <c r="BY35" s="26"/>
-      <c r="BZ35" s="28"/>
-      <c r="CA35" s="25"/>
-      <c r="CB35" s="26"/>
-      <c r="CC35" s="26"/>
-      <c r="CD35" s="26"/>
+      <c r="BX35" s="104"/>
+      <c r="BY35" s="104"/>
+      <c r="BZ35" s="104"/>
+      <c r="CA35" s="81"/>
+      <c r="CB35" s="81"/>
+      <c r="CC35" s="81"/>
+      <c r="CD35" s="81"/>
       <c r="CE35" s="26"/>
       <c r="CF35" s="30"/>
-      <c r="CG35" s="81"/>
-      <c r="CH35" s="81"/>
-      <c r="CI35" s="81"/>
-      <c r="CJ35" s="81"/>
-      <c r="CK35" s="81"/>
-      <c r="CL35" s="81"/>
+      <c r="CG35" s="30"/>
+      <c r="CH35" s="30"/>
+      <c r="CI35" s="30"/>
+      <c r="CJ35" s="30"/>
+      <c r="CK35" s="26"/>
+      <c r="CL35" s="26"/>
       <c r="CM35" s="26"/>
       <c r="CN35" s="26"/>
       <c r="CO35" s="26"/>
@@ -8372,9 +8362,9 @@
       <c r="CX35" s="26"/>
       <c r="CY35" s="31"/>
     </row>
-    <row r="36" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C36" s="54" t="s">
         <v>144</v>
@@ -8383,14 +8373,14 @@
         <v>119</v>
       </c>
       <c r="E36" s="96">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="F36" s="97">
-        <v>45426</v>
+        <v>45454</v>
       </c>
       <c r="G36" s="85">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H36" s="70">
         <v>0</v>
@@ -8469,19 +8459,19 @@
       <c r="CB36" s="26"/>
       <c r="CC36" s="26"/>
       <c r="CD36" s="26"/>
-      <c r="CE36" s="26"/>
-      <c r="CF36" s="30"/>
-      <c r="CG36" s="30"/>
-      <c r="CH36" s="30"/>
-      <c r="CI36" s="30"/>
-      <c r="CJ36" s="30"/>
-      <c r="CK36" s="26"/>
-      <c r="CL36" s="81"/>
-      <c r="CM36" s="81"/>
-      <c r="CN36" s="81"/>
-      <c r="CO36" s="81"/>
-      <c r="CP36" s="81"/>
-      <c r="CQ36" s="81"/>
+      <c r="CE36" s="81"/>
+      <c r="CF36" s="81"/>
+      <c r="CG36" s="81"/>
+      <c r="CH36" s="81"/>
+      <c r="CI36" s="81"/>
+      <c r="CJ36" s="81"/>
+      <c r="CK36" s="81"/>
+      <c r="CL36" s="26"/>
+      <c r="CM36" s="26"/>
+      <c r="CN36" s="26"/>
+      <c r="CO36" s="26"/>
+      <c r="CP36" s="30"/>
+      <c r="CQ36" s="30"/>
       <c r="CR36" s="30"/>
       <c r="CS36" s="30"/>
       <c r="CT36" s="30"/>
@@ -8491,7 +8481,7 @@
       <c r="CX36" s="26"/>
       <c r="CY36" s="31"/>
     </row>
-    <row r="37" spans="2:103" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="53" t="s">
         <v>71</v>
       </c>
@@ -8502,14 +8492,14 @@
         <v>119</v>
       </c>
       <c r="E37" s="96">
-        <v>45426</v>
+        <v>45454</v>
       </c>
       <c r="F37" s="97">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="G37" s="85">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H37" s="70">
         <v>0</v>
@@ -8595,24 +8585,24 @@
       <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
       <c r="CK37" s="26"/>
-      <c r="CL37" s="26"/>
-      <c r="CM37" s="26"/>
-      <c r="CN37" s="26"/>
-      <c r="CO37" s="26"/>
-      <c r="CP37" s="30"/>
+      <c r="CL37" s="81"/>
+      <c r="CM37" s="81"/>
+      <c r="CN37" s="81"/>
+      <c r="CO37" s="81"/>
+      <c r="CP37" s="81"/>
       <c r="CQ37" s="81"/>
       <c r="CR37" s="81"/>
-      <c r="CS37" s="81"/>
-      <c r="CT37" s="81"/>
-      <c r="CU37" s="81"/>
-      <c r="CV37" s="81"/>
+      <c r="CS37" s="30"/>
+      <c r="CT37" s="30"/>
+      <c r="CU37" s="26"/>
+      <c r="CV37" s="26"/>
       <c r="CW37" s="26"/>
       <c r="CX37" s="26"/>
-      <c r="CY37" s="31"/>
-    </row>
-    <row r="38" spans="2:103" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="CY37" s="26"/>
+    </row>
+    <row r="38" spans="2:103" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>124</v>
@@ -8621,14 +8611,14 @@
         <v>119</v>
       </c>
       <c r="E38" s="98">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="F38" s="99">
-        <v>45436</v>
+        <v>45471</v>
       </c>
       <c r="G38" s="85">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H38" s="72">
         <v>0</v>
@@ -8713,27 +8703,34 @@
       <c r="CH38" s="39"/>
       <c r="CI38" s="39"/>
       <c r="CJ38" s="39"/>
-      <c r="CK38" s="35"/>
-      <c r="CL38" s="35"/>
-      <c r="CM38" s="35"/>
-      <c r="CN38" s="35"/>
-      <c r="CO38" s="35"/>
+      <c r="CK38" s="26"/>
+      <c r="CL38" s="26"/>
+      <c r="CM38" s="26"/>
+      <c r="CN38" s="26"/>
+      <c r="CO38" s="26"/>
       <c r="CP38" s="39"/>
       <c r="CQ38" s="39"/>
       <c r="CR38" s="39"/>
-      <c r="CS38" s="39"/>
-      <c r="CT38" s="39"/>
-      <c r="CU38" s="35"/>
-      <c r="CV38" s="110"/>
-      <c r="CW38" s="110"/>
-      <c r="CX38" s="110"/>
-      <c r="CY38" s="111"/>
-    </row>
-    <row r="45" spans="2:103" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CS38" s="81"/>
+      <c r="CT38" s="81"/>
+      <c r="CU38" s="81"/>
+      <c r="CV38" s="81"/>
+      <c r="CW38" s="81"/>
+      <c r="CX38" s="81"/>
+      <c r="CY38" s="81"/>
+    </row>
+    <row r="45" spans="2:103" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="AH8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
     <mergeCell ref="CU8:CY8"/>
     <mergeCell ref="I7:W7"/>
     <mergeCell ref="X7:AV7"/>
@@ -8750,13 +8747,6 @@
     <mergeCell ref="BV8:BZ8"/>
     <mergeCell ref="CA8:CE8"/>
     <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H38">
     <cfRule type="dataBar" priority="9">
@@ -8779,21 +8769,21 @@
     <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3046875" customWidth="1"/>
-    <col min="3" max="3" width="26.15234375" customWidth="1"/>
-    <col min="4" max="4" width="20.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.4609375" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -8813,8 +8803,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="100" t="s">
@@ -8833,12 +8823,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="104" t="s">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="100" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>160</v>
       </c>
       <c r="C3" s="100" t="s">
         <v>83</v>
@@ -8853,12 +8843,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
-        <v>167</v>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>166</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="100" t="s">
         <v>83</v>
@@ -8873,15 +8863,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="104" t="s">
-        <v>169</v>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
+        <v>168</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>81</v>
@@ -8893,15 +8883,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="100" t="s">
         <v>150</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="D6" s="100" t="s">
         <v>81</v>
@@ -8913,8 +8903,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="104" t="s">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="100" t="s">
@@ -8933,8 +8923,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="s">
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="100" t="s">
@@ -8953,8 +8943,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="100" t="s">
@@ -8973,15 +8963,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="104" t="s">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>157</v>
-      </c>
       <c r="C10" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="100" t="s">
         <v>81</v>
@@ -8993,12 +8983,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="104" t="s">
+    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="100" t="s">
         <v>154</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>155</v>
       </c>
       <c r="C11" s="100" t="s">
         <v>83</v>
@@ -9013,15 +9003,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="93" x14ac:dyDescent="0.35">
-      <c r="A12" s="104" t="s">
-        <v>168</v>
+    <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="103" t="s">
+        <v>167</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="D12" s="100" t="s">
         <v>78</v>
@@ -9033,15 +9023,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A13" s="104" t="s">
+    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="100" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="D13" s="100" t="s">
         <v>78</v>
@@ -9053,15 +9043,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="104" t="s">
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>165</v>
-      </c>
       <c r="C14" s="100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D14" s="100" t="s">
         <v>78</v>
@@ -9073,15 +9063,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="104" t="s">
-        <v>152</v>
+    <row r="15" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="103" t="s">
+        <v>151</v>
       </c>
       <c r="B15" s="100" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="100" t="s">
         <v>78</v>
@@ -9093,15 +9083,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="104" t="s">
+    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="C16" s="100" t="s">
         <v>162</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>163</v>
       </c>
       <c r="D16" s="100" t="s">
         <v>78</v>
@@ -9113,8 +9103,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="104" t="s">
+    <row r="17" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="101" t="s">
@@ -9133,15 +9123,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A18" s="104" t="s">
+    <row r="18" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="100" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="100" t="s">
         <v>80</v>
@@ -9153,8 +9143,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="104" t="s">
+    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="103" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="100" t="s">
@@ -9173,8 +9163,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="93" x14ac:dyDescent="0.35">
-      <c r="A20" s="104" t="s">
+    <row r="20" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="103" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="100" t="s">
@@ -9193,8 +9183,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="186" x14ac:dyDescent="0.35">
-      <c r="A21" s="104" t="s">
+    <row r="21" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
         <v>147</v>
       </c>
       <c r="B21" s="100" t="s">
@@ -9213,15 +9203,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="263.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="104" t="s">
+    <row r="22" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A22" s="103" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="100" t="s">
         <v>78</v>
@@ -9233,15 +9223,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A23" s="104" t="s">
-        <v>166</v>
+    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="103" t="s">
+        <v>165</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" s="100" t="s">
         <v>80</v>
@@ -9250,8 +9240,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="104" t="s">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
         <v>142</v>
       </c>
       <c r="B24" s="100"/>

--- a/docs/CartaGantt_Maquina_de_ventas.xlsx
+++ b/docs/CartaGantt_Maquina_de_ventas.xlsx
@@ -5,13 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\Desktop\siquesi\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desar\Desktop\seller\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09B38E-AC44-48E8-89E5-3CE576A49602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E016DA7-F075-41CD-9BBF-6E977E761487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" firstSheet="1" activeTab="1" xr2:uid="{C723281C-8F4F-46B8-87EC-E0367F0BCC75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{C723281C-8F4F-46B8-87EC-E0367F0BCC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Gantt simple - EX" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="184">
   <si>
     <t>PLANTILLA DE DIAGRAMA DE GANTT SIMPLE</t>
   </si>
@@ -380,12 +379,6 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>SEMANA 13</t>
-  </si>
-  <si>
-    <t>SEMANA 14</t>
-  </si>
-  <si>
     <t>Rodrigo Alvarez</t>
   </si>
   <si>
@@ -579,6 +572,21 @@
   </si>
   <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Produccion Frontend</t>
+  </si>
+  <si>
+    <t>Produccion Front-Back</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>BACKEND</t>
   </si>
 </sst>
 </file>
@@ -679,7 +687,7 @@
       <name val="Corbel"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,12 +810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00BD32"/>
         <bgColor rgb="FF00BD32"/>
       </patternFill>
@@ -820,12 +822,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1459,16 +1461,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1478,7 +1491,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1662,7 +1675,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1721,12 +1733,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,8 +1765,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1761,14 +1780,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2057,26 +2073,22 @@
   </sheetPr>
   <dimension ref="B1:BP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB20" sqref="AB20"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.4609375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="68" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="30.23046875" customWidth="1"/>
+    <col min="4" max="4" width="11.765625" customWidth="1"/>
+    <col min="5" max="7" width="9.84375" customWidth="1"/>
+    <col min="8" max="8" width="14.4609375" customWidth="1"/>
+    <col min="9" max="68" width="3.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" s="46" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:68" s="46" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2095,34 +2107,34 @@
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
     </row>
-    <row r="2" spans="2:68" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:68" s="1" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="79"/>
     </row>
-    <row r="3" spans="2:68" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:68" s="1" customFormat="1" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="78"/>
     </row>
-    <row r="4" spans="2:68" s="1" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:68" s="1" customFormat="1" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="2:68" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:68" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="91"/>
-    </row>
-    <row r="6" spans="2:68" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="90"/>
+    </row>
+    <row r="6" spans="2:68" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:68" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2130,76 +2142,76 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="106" t="s">
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="108"/>
-      <c r="AM7" s="109" t="s">
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="109"/>
+      <c r="AI7" s="109"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="108"/>
-      <c r="BB7" s="111" t="s">
+      <c r="AN7" s="109"/>
+      <c r="AO7" s="109"/>
+      <c r="AP7" s="109"/>
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="109"/>
+      <c r="AW7" s="109"/>
+      <c r="AX7" s="109"/>
+      <c r="AY7" s="109"/>
+      <c r="AZ7" s="109"/>
+      <c r="BA7" s="110"/>
+      <c r="BB7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="107"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="108"/>
-    </row>
-    <row r="8" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC7" s="109"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="109"/>
+      <c r="BK7" s="109"/>
+      <c r="BL7" s="109"/>
+      <c r="BM7" s="109"/>
+      <c r="BN7" s="109"/>
+      <c r="BO7" s="109"/>
+      <c r="BP7" s="110"/>
+    </row>
+    <row r="8" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2209,10 +2221,10 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="87" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2224,89 +2236,89 @@
       <c r="I8" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="114"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="106"/>
       <c r="S8" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="122" t="s">
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="123" t="s">
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="123" t="s">
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="114"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="106"/>
       <c r="AM8" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="112" t="s">
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="113"/>
-      <c r="AU8" s="113"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="112" t="s">
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AX8" s="113"/>
-      <c r="AY8" s="113"/>
-      <c r="AZ8" s="113"/>
-      <c r="BA8" s="114"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="106"/>
       <c r="BB8" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="BC8" s="113"/>
-      <c r="BD8" s="113"/>
-      <c r="BE8" s="113"/>
-      <c r="BF8" s="114"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="106"/>
       <c r="BG8" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="BH8" s="113"/>
-      <c r="BI8" s="113"/>
-      <c r="BJ8" s="113"/>
-      <c r="BK8" s="114"/>
+      <c r="BH8" s="105"/>
+      <c r="BI8" s="105"/>
+      <c r="BJ8" s="105"/>
+      <c r="BK8" s="106"/>
       <c r="BL8" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="BM8" s="113"/>
-      <c r="BN8" s="113"/>
-      <c r="BO8" s="113"/>
-      <c r="BP8" s="114"/>
-    </row>
-    <row r="9" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
+      <c r="BP8" s="106"/>
+    </row>
+    <row r="9" spans="2:68" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
@@ -2316,10 +2328,10 @@
       <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2509,7 +2521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:68" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B10" s="49">
         <v>1</v>
       </c>
@@ -2517,8 +2529,8 @@
         <v>36</v>
       </c>
       <c r="D10" s="51"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="52" t="str">
         <f t="shared" ref="G10:G34" si="0">IF(F10-E10=0,"",F10-E10)</f>
         <v/>
@@ -2585,7 +2597,7 @@
       <c r="BO10" s="22"/>
       <c r="BP10" s="24"/>
     </row>
-    <row r="11" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="53">
         <v>1.1000000000000001</v>
       </c>
@@ -2595,13 +2607,13 @@
       <c r="D11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="91">
         <v>44997</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="92">
         <v>45000</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2669,7 +2681,7 @@
       <c r="BO11" s="26"/>
       <c r="BP11" s="31"/>
     </row>
-    <row r="12" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="53" t="s">
         <v>39</v>
       </c>
@@ -2679,13 +2691,13 @@
       <c r="D12" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>45000</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="92">
         <v>45001</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="84">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2753,7 +2765,7 @@
       <c r="BO12" s="26"/>
       <c r="BP12" s="31"/>
     </row>
-    <row r="13" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53">
         <v>1.2</v>
       </c>
@@ -2763,13 +2775,13 @@
       <c r="D13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <v>45000</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="92">
         <v>45006</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="84">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2837,7 +2849,7 @@
       <c r="BO13" s="26"/>
       <c r="BP13" s="31"/>
     </row>
-    <row r="14" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="53">
         <v>1.3</v>
       </c>
@@ -2847,13 +2859,13 @@
       <c r="D14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="91">
         <v>45001</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="92">
         <v>45007</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="84">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2921,7 +2933,7 @@
       <c r="BO14" s="26"/>
       <c r="BP14" s="31"/>
     </row>
-    <row r="15" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="53">
         <v>1.4</v>
       </c>
@@ -2931,13 +2943,13 @@
       <c r="D15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="91">
         <v>45002</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="92">
         <v>45007</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3005,7 +3017,7 @@
       <c r="BO15" s="26"/>
       <c r="BP15" s="31"/>
     </row>
-    <row r="16" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="53">
         <v>1.5</v>
       </c>
@@ -3015,13 +3027,13 @@
       <c r="D16" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="91">
         <v>45003</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="92">
         <v>45007</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3089,7 +3101,7 @@
       <c r="BO16" s="26"/>
       <c r="BP16" s="31"/>
     </row>
-    <row r="17" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="53">
         <v>1.6</v>
       </c>
@@ -3099,13 +3111,13 @@
       <c r="D17" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="91">
         <v>45008</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="92">
         <v>45008</v>
       </c>
-      <c r="G17" s="85" t="str">
+      <c r="G17" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3126,7 +3138,7 @@
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
-      <c r="W17" s="82"/>
+      <c r="W17" s="81"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="26"/>
@@ -3173,7 +3185,7 @@
       <c r="BO17" s="26"/>
       <c r="BP17" s="31"/>
     </row>
-    <row r="18" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="53">
         <v>2</v>
       </c>
@@ -3181,8 +3193,8 @@
         <v>51</v>
       </c>
       <c r="D18" s="59"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3249,7 +3261,7 @@
       <c r="BO18" s="22"/>
       <c r="BP18" s="24"/>
     </row>
-    <row r="19" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="53">
         <v>2.1</v>
       </c>
@@ -3259,13 +3271,13 @@
       <c r="D19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="91">
         <v>45009</v>
       </c>
-      <c r="F19" s="93">
+      <c r="F19" s="92">
         <v>45013</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3333,7 +3345,7 @@
       <c r="BO19" s="26"/>
       <c r="BP19" s="31"/>
     </row>
-    <row r="20" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="53">
         <v>2.2000000000000002</v>
       </c>
@@ -3343,13 +3355,13 @@
       <c r="D20" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="91">
         <v>45014</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="92">
         <v>45018</v>
       </c>
-      <c r="G20" s="85">
+      <c r="G20" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3417,7 +3429,7 @@
       <c r="BO20" s="26"/>
       <c r="BP20" s="31"/>
     </row>
-    <row r="21" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="53">
         <v>2.2999999999999998</v>
       </c>
@@ -3427,9 +3439,9 @@
       <c r="D21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="85" t="str">
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3497,7 +3509,7 @@
       <c r="BO21" s="26"/>
       <c r="BP21" s="31"/>
     </row>
-    <row r="22" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="53">
         <v>2.4</v>
       </c>
@@ -3507,9 +3519,9 @@
       <c r="D22" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="85" t="str">
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3577,7 +3589,7 @@
       <c r="BO22" s="26"/>
       <c r="BP22" s="31"/>
     </row>
-    <row r="23" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="53">
         <v>3</v>
       </c>
@@ -3585,8 +3597,8 @@
         <v>56</v>
       </c>
       <c r="D23" s="59"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3653,7 +3665,7 @@
       <c r="BO23" s="22"/>
       <c r="BP23" s="24"/>
     </row>
-    <row r="24" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="53">
         <v>3.1</v>
       </c>
@@ -3663,9 +3675,9 @@
       <c r="D24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="85" t="str">
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3733,7 +3745,7 @@
       <c r="BO24" s="26"/>
       <c r="BP24" s="31"/>
     </row>
-    <row r="25" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="53">
         <v>3.2</v>
       </c>
@@ -3743,9 +3755,9 @@
       <c r="D25" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="85" t="str">
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3813,7 +3825,7 @@
       <c r="BO25" s="26"/>
       <c r="BP25" s="31"/>
     </row>
-    <row r="26" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="53" t="s">
         <v>59</v>
       </c>
@@ -3823,9 +3835,9 @@
       <c r="D26" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="85" t="str">
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3893,7 +3905,7 @@
       <c r="BO26" s="26"/>
       <c r="BP26" s="31"/>
     </row>
-    <row r="27" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="53" t="s">
         <v>61</v>
       </c>
@@ -3903,9 +3915,9 @@
       <c r="D27" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="85" t="str">
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3975,7 +3987,7 @@
       <c r="BO27" s="26"/>
       <c r="BP27" s="31"/>
     </row>
-    <row r="28" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="53">
         <v>3.3</v>
       </c>
@@ -3985,9 +3997,9 @@
       <c r="D28" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="85" t="str">
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4055,7 +4067,7 @@
       <c r="BO28" s="26"/>
       <c r="BP28" s="31"/>
     </row>
-    <row r="29" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="53" t="s">
         <v>65</v>
       </c>
@@ -4065,9 +4077,9 @@
       <c r="D29" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="85" t="str">
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4135,7 +4147,7 @@
       <c r="BO29" s="26"/>
       <c r="BP29" s="31"/>
     </row>
-    <row r="30" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="53">
         <v>4</v>
       </c>
@@ -4143,8 +4155,8 @@
         <v>67</v>
       </c>
       <c r="D30" s="59"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4211,7 +4223,7 @@
       <c r="BO30" s="22"/>
       <c r="BP30" s="24"/>
     </row>
-    <row r="31" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="53">
         <v>4.0999999999999996</v>
       </c>
@@ -4221,9 +4233,9 @@
       <c r="D31" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="85" t="str">
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4291,7 +4303,7 @@
       <c r="BO31" s="26"/>
       <c r="BP31" s="31"/>
     </row>
-    <row r="32" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="53">
         <v>4.2</v>
       </c>
@@ -4301,9 +4313,9 @@
       <c r="D32" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="85" t="str">
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4371,7 +4383,7 @@
       <c r="BO32" s="26"/>
       <c r="BP32" s="31"/>
     </row>
-    <row r="33" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="53">
         <v>4.3</v>
       </c>
@@ -4381,9 +4393,9 @@
       <c r="D33" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="85" t="str">
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="84" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4451,7 +4463,7 @@
       <c r="BO33" s="26"/>
       <c r="BP33" s="31"/>
     </row>
-    <row r="34" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:68" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="61" t="s">
         <v>71</v>
       </c>
@@ -4461,9 +4473,9 @@
       <c r="D34" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="86" t="str">
+      <c r="E34" s="97"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4531,82 +4543,83 @@
       <c r="BO34" s="35"/>
       <c r="BP34" s="40"/>
     </row>
-    <row r="36" spans="2:68" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="120" t="s">
+    <row r="36" spans="2:68" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
-      <c r="AC36" s="121"/>
-      <c r="AD36" s="121"/>
-      <c r="AE36" s="121"/>
-      <c r="AF36" s="121"/>
-      <c r="AG36" s="121"/>
-      <c r="AH36" s="121"/>
-      <c r="AI36" s="121"/>
-      <c r="AJ36" s="121"/>
-      <c r="AK36" s="121"/>
-      <c r="AL36" s="121"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="121"/>
-      <c r="AO36" s="121"/>
-      <c r="AP36" s="121"/>
-      <c r="AQ36" s="121"/>
-      <c r="AR36" s="121"/>
-      <c r="AS36" s="121"/>
-      <c r="AT36" s="121"/>
-      <c r="AU36" s="121"/>
-      <c r="AV36" s="121"/>
-      <c r="AW36" s="121"/>
-      <c r="AX36" s="121"/>
-      <c r="AY36" s="121"/>
-      <c r="AZ36" s="121"/>
-      <c r="BA36" s="121"/>
-      <c r="BB36" s="121"/>
-      <c r="BC36" s="121"/>
-      <c r="BD36" s="121"/>
-      <c r="BE36" s="121"/>
-      <c r="BF36" s="121"/>
-      <c r="BG36" s="121"/>
-      <c r="BH36" s="121"/>
-      <c r="BI36" s="121"/>
-      <c r="BJ36" s="121"/>
-      <c r="BK36" s="121"/>
-      <c r="BL36" s="121"/>
-      <c r="BM36" s="121"/>
-      <c r="BN36" s="121"/>
-      <c r="BO36" s="121"/>
-      <c r="BP36" s="121"/>
-    </row>
-    <row r="42" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="103"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="103"/>
+      <c r="AI36" s="103"/>
+      <c r="AJ36" s="103"/>
+      <c r="AK36" s="103"/>
+      <c r="AL36" s="103"/>
+      <c r="AM36" s="103"/>
+      <c r="AN36" s="103"/>
+      <c r="AO36" s="103"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="103"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="103"/>
+      <c r="AT36" s="103"/>
+      <c r="AU36" s="103"/>
+      <c r="AV36" s="103"/>
+      <c r="AW36" s="103"/>
+      <c r="AX36" s="103"/>
+      <c r="AY36" s="103"/>
+      <c r="AZ36" s="103"/>
+      <c r="BA36" s="103"/>
+      <c r="BB36" s="103"/>
+      <c r="BC36" s="103"/>
+      <c r="BD36" s="103"/>
+      <c r="BE36" s="103"/>
+      <c r="BF36" s="103"/>
+      <c r="BG36" s="103"/>
+      <c r="BH36" s="103"/>
+      <c r="BI36" s="103"/>
+      <c r="BJ36" s="103"/>
+      <c r="BK36" s="103"/>
+      <c r="BL36" s="103"/>
+      <c r="BM36" s="103"/>
+      <c r="BN36" s="103"/>
+      <c r="BO36" s="103"/>
+      <c r="BP36" s="103"/>
+    </row>
+    <row r="42" spans="2:68" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AM8:AQ8"/>
     <mergeCell ref="B36:BP36"/>
     <mergeCell ref="X8:AB8"/>
     <mergeCell ref="AC8:AG8"/>
@@ -4623,7 +4636,6 @@
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="N8:R8"/>
-    <mergeCell ref="AM8:AQ8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H34">
     <cfRule type="dataBar" priority="2">
@@ -4647,32 +4659,28 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:CY45"/>
+  <dimension ref="B1:BA46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG31" sqref="BG31"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.4609375" customWidth="1"/>
+    <col min="2" max="2" width="23.15234375" customWidth="1"/>
+    <col min="3" max="3" width="46.15234375" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" customWidth="1"/>
+    <col min="6" max="6" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="103" width="3.25" customWidth="1"/>
+    <col min="9" max="53" width="3.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:103" s="46" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:53" s="46" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -4689,23 +4697,23 @@
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
     </row>
-    <row r="2" spans="2:103" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:53" s="1" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:103" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:53" s="1" customFormat="1" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:103" s="1" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:53" s="1" customFormat="1" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
@@ -4713,18 +4721,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:103" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:53" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="91">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="6" spans="2:103" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="90">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:53" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4732,111 +4738,57 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="107"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="107"/>
-      <c r="BQ7" s="107"/>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="107"/>
-      <c r="BV7" s="107"/>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="107"/>
-      <c r="BY7" s="107"/>
-      <c r="BZ7" s="108"/>
-      <c r="CA7" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB7" s="107"/>
-      <c r="CC7" s="107"/>
-      <c r="CD7" s="107"/>
-      <c r="CE7" s="107"/>
-      <c r="CF7" s="107"/>
-      <c r="CG7" s="107"/>
-      <c r="CH7" s="107"/>
-      <c r="CI7" s="107"/>
-      <c r="CJ7" s="107"/>
-      <c r="CK7" s="107"/>
-      <c r="CL7" s="107"/>
-      <c r="CM7" s="107"/>
-      <c r="CN7" s="107"/>
-      <c r="CO7" s="107"/>
-      <c r="CP7" s="107"/>
-      <c r="CQ7" s="107"/>
-      <c r="CR7" s="107"/>
-      <c r="CS7" s="107"/>
-      <c r="CT7" s="107"/>
-      <c r="CU7" s="107"/>
-      <c r="CV7" s="107"/>
-      <c r="CW7" s="107"/>
-      <c r="CX7" s="107"/>
-      <c r="CY7" s="108"/>
-    </row>
-    <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="122"/>
+      <c r="AS7" s="122"/>
+      <c r="AT7" s="122"/>
+      <c r="AU7" s="122"/>
+      <c r="AV7" s="122"/>
+      <c r="AW7" s="122"/>
+      <c r="AX7" s="122"/>
+      <c r="AY7" s="122"/>
+      <c r="AZ7" s="122"/>
+      <c r="BA7" s="122"/>
+    </row>
+    <row r="8" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -4846,10 +4798,10 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="87" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -4861,138 +4813,68 @@
       <c r="I8" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="114"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="106"/>
       <c r="S8" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="122" t="s">
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="123" t="s">
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="123" t="s">
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="114"/>
-      <c r="AM8" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="123" t="s">
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="113"/>
-      <c r="AU8" s="113"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX8" s="113"/>
-      <c r="AY8" s="113"/>
-      <c r="AZ8" s="113"/>
-      <c r="BA8" s="114"/>
-      <c r="BB8" s="112" t="s">
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="BC8" s="113"/>
-      <c r="BD8" s="113"/>
-      <c r="BE8" s="113"/>
-      <c r="BF8" s="114"/>
-      <c r="BG8" s="112" t="s">
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="BH8" s="113"/>
-      <c r="BI8" s="113"/>
-      <c r="BJ8" s="113"/>
-      <c r="BK8" s="114"/>
-      <c r="BL8" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM8" s="113"/>
-      <c r="BN8" s="113"/>
-      <c r="BO8" s="113"/>
-      <c r="BP8" s="114"/>
-      <c r="BQ8" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="BR8" s="113"/>
-      <c r="BS8" s="113"/>
-      <c r="BT8" s="113"/>
-      <c r="BU8" s="114"/>
-      <c r="BV8" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW8" s="113"/>
-      <c r="BX8" s="113"/>
-      <c r="BY8" s="113"/>
-      <c r="BZ8" s="114"/>
-      <c r="CA8" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="CB8" s="113"/>
-      <c r="CC8" s="113"/>
-      <c r="CD8" s="113"/>
-      <c r="CE8" s="114"/>
-      <c r="CF8" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="CG8" s="113"/>
-      <c r="CH8" s="113"/>
-      <c r="CI8" s="113"/>
-      <c r="CJ8" s="114"/>
-      <c r="CK8" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="CL8" s="113"/>
-      <c r="CM8" s="113"/>
-      <c r="CN8" s="113"/>
-      <c r="CO8" s="114"/>
-      <c r="CP8" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="CQ8" s="113"/>
-      <c r="CR8" s="113"/>
-      <c r="CS8" s="113"/>
-      <c r="CT8" s="114"/>
-      <c r="CU8" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="CV8" s="113"/>
-      <c r="CW8" s="113"/>
-      <c r="CX8" s="113"/>
-      <c r="CY8" s="114"/>
-    </row>
-    <row r="9" spans="2:103" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="106"/>
+    </row>
+    <row r="9" spans="2:53" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
@@ -5002,10 +4884,10 @@
       <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -5134,173 +5016,23 @@
       <c r="AV9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AW9" s="41" t="s">
+      <c r="AW9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AX9" s="42" t="s">
+      <c r="AX9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AY9" s="42" t="s">
+      <c r="AY9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AZ9" s="42" t="s">
+      <c r="AZ9" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="BA9" s="42" t="s">
+      <c r="BA9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="BB9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF9" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BN9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="CB9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CD9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CH9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CI9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="CJ9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="CK9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="CL9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CN9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="CO9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="CP9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="CQ9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CS9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="CT9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="CV9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CW9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="CX9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="CY9" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:53" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B10" s="49">
         <v>1</v>
       </c>
@@ -5308,10 +5040,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="51"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="52" t="str">
-        <f t="shared" ref="G10:G38" si="0">IF(F10-E10=0,"",F10-E10)</f>
+        <f t="shared" ref="G10:G39" si="0">IF(F10-E10=0,"",F10-E10)</f>
         <v/>
       </c>
       <c r="H10" s="69"/>
@@ -5355,63 +5087,13 @@
       <c r="AT10" s="22"/>
       <c r="AU10" s="22"/>
       <c r="AV10" s="23"/>
-      <c r="AW10" s="21"/>
+      <c r="AW10" s="22"/>
       <c r="AX10" s="22"/>
       <c r="AY10" s="22"/>
       <c r="AZ10" s="22"/>
       <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
-      <c r="BX10" s="22"/>
-      <c r="BY10" s="22"/>
-      <c r="BZ10" s="23"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="22"/>
-      <c r="CF10" s="22"/>
-      <c r="CG10" s="22"/>
-      <c r="CH10" s="22"/>
-      <c r="CI10" s="22"/>
-      <c r="CJ10" s="22"/>
-      <c r="CK10" s="22"/>
-      <c r="CL10" s="22"/>
-      <c r="CM10" s="22"/>
-      <c r="CN10" s="22"/>
-      <c r="CO10" s="22"/>
-      <c r="CP10" s="22"/>
-      <c r="CQ10" s="22"/>
-      <c r="CR10" s="22"/>
-      <c r="CS10" s="22"/>
-      <c r="CT10" s="22"/>
-      <c r="CU10" s="22"/>
-      <c r="CV10" s="22"/>
-      <c r="CW10" s="22"/>
-      <c r="CX10" s="22"/>
-      <c r="CY10" s="24"/>
-    </row>
-    <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>96</v>
       </c>
@@ -5419,24 +5101,24 @@
         <v>87</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="96">
+        <v>117</v>
+      </c>
+      <c r="E11" s="95">
         <v>45342</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="96">
         <v>45344</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="84">
         <f>IF(F11-E11=0,"",F11-E11)</f>
         <v>2</v>
       </c>
       <c r="H11" s="70">
         <v>0</v>
       </c>
-      <c r="I11" s="65"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="27"/>
@@ -5474,63 +5156,13 @@
       <c r="AT11" s="26"/>
       <c r="AU11" s="26"/>
       <c r="AV11" s="28"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44"/>
-      <c r="BR11" s="44"/>
-      <c r="BS11" s="44"/>
-      <c r="BT11" s="44"/>
-      <c r="BU11" s="44"/>
-      <c r="BV11" s="26"/>
-      <c r="BW11" s="26"/>
-      <c r="BX11" s="26"/>
-      <c r="BY11" s="26"/>
-      <c r="BZ11" s="28"/>
-      <c r="CA11" s="25"/>
-      <c r="CB11" s="26"/>
-      <c r="CC11" s="26"/>
-      <c r="CD11" s="26"/>
-      <c r="CE11" s="26"/>
-      <c r="CF11" s="30"/>
-      <c r="CG11" s="30"/>
-      <c r="CH11" s="30"/>
-      <c r="CI11" s="30"/>
-      <c r="CJ11" s="30"/>
-      <c r="CK11" s="30"/>
-      <c r="CL11" s="30"/>
-      <c r="CM11" s="30"/>
-      <c r="CN11" s="30"/>
-      <c r="CO11" s="30"/>
-      <c r="CP11" s="30"/>
-      <c r="CQ11" s="30"/>
-      <c r="CR11" s="30"/>
-      <c r="CS11" s="30"/>
-      <c r="CT11" s="30"/>
-      <c r="CU11" s="26"/>
-      <c r="CV11" s="26"/>
-      <c r="CW11" s="26"/>
-      <c r="CX11" s="26"/>
-      <c r="CY11" s="31"/>
-    </row>
-    <row r="12" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+    </row>
+    <row r="12" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="53" t="s">
         <v>97</v>
       </c>
@@ -5538,26 +5170,26 @@
         <v>88</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="96">
+        <v>117</v>
+      </c>
+      <c r="E12" s="95">
         <v>45344</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="96">
         <v>45346</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H12" s="70">
         <v>0</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="80"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -5593,63 +5225,13 @@
       <c r="AT12" s="26"/>
       <c r="AU12" s="26"/>
       <c r="AV12" s="28"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="44"/>
-      <c r="BQ12" s="44"/>
-      <c r="BR12" s="44"/>
-      <c r="BS12" s="44"/>
-      <c r="BT12" s="44"/>
-      <c r="BU12" s="44"/>
-      <c r="BV12" s="26"/>
-      <c r="BW12" s="26"/>
-      <c r="BX12" s="26"/>
-      <c r="BY12" s="26"/>
-      <c r="BZ12" s="28"/>
-      <c r="CA12" s="25"/>
-      <c r="CB12" s="26"/>
-      <c r="CC12" s="26"/>
-      <c r="CD12" s="26"/>
-      <c r="CE12" s="26"/>
-      <c r="CF12" s="30"/>
-      <c r="CG12" s="30"/>
-      <c r="CH12" s="30"/>
-      <c r="CI12" s="30"/>
-      <c r="CJ12" s="30"/>
-      <c r="CK12" s="30"/>
-      <c r="CL12" s="30"/>
-      <c r="CM12" s="30"/>
-      <c r="CN12" s="30"/>
-      <c r="CO12" s="30"/>
-      <c r="CP12" s="30"/>
-      <c r="CQ12" s="30"/>
-      <c r="CR12" s="30"/>
-      <c r="CS12" s="30"/>
-      <c r="CT12" s="30"/>
-      <c r="CU12" s="26"/>
-      <c r="CV12" s="26"/>
-      <c r="CW12" s="26"/>
-      <c r="CX12" s="26"/>
-      <c r="CY12" s="31"/>
-    </row>
-    <row r="13" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+    </row>
+    <row r="13" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>98</v>
       </c>
@@ -5657,15 +5239,15 @@
         <v>89</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="96">
+        <v>117</v>
+      </c>
+      <c r="E13" s="95">
         <v>45348</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="96">
         <v>45350</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5687,8 +5269,8 @@
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="26"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
@@ -5712,63 +5294,13 @@
       <c r="AT13" s="26"/>
       <c r="AU13" s="26"/>
       <c r="AV13" s="28"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44"/>
-      <c r="BP13" s="44"/>
-      <c r="BQ13" s="44"/>
-      <c r="BR13" s="44"/>
-      <c r="BS13" s="44"/>
-      <c r="BT13" s="44"/>
-      <c r="BU13" s="44"/>
-      <c r="BV13" s="26"/>
-      <c r="BW13" s="26"/>
-      <c r="BX13" s="26"/>
-      <c r="BY13" s="26"/>
-      <c r="BZ13" s="28"/>
-      <c r="CA13" s="25"/>
-      <c r="CB13" s="26"/>
-      <c r="CC13" s="26"/>
-      <c r="CD13" s="26"/>
-      <c r="CE13" s="26"/>
-      <c r="CF13" s="30"/>
-      <c r="CG13" s="30"/>
-      <c r="CH13" s="30"/>
-      <c r="CI13" s="30"/>
-      <c r="CJ13" s="30"/>
-      <c r="CK13" s="30"/>
-      <c r="CL13" s="30"/>
-      <c r="CM13" s="30"/>
-      <c r="CN13" s="30"/>
-      <c r="CO13" s="30"/>
-      <c r="CP13" s="30"/>
-      <c r="CQ13" s="30"/>
-      <c r="CR13" s="30"/>
-      <c r="CS13" s="30"/>
-      <c r="CT13" s="30"/>
-      <c r="CU13" s="26"/>
-      <c r="CV13" s="26"/>
-      <c r="CW13" s="26"/>
-      <c r="CX13" s="26"/>
-      <c r="CY13" s="31"/>
-    </row>
-    <row r="14" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+    </row>
+    <row r="14" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="53" t="s">
         <v>99</v>
       </c>
@@ -5776,15 +5308,15 @@
         <v>90</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="96">
+        <v>117</v>
+      </c>
+      <c r="E14" s="95">
         <v>45350</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="96">
         <v>45351</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="84">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5807,7 +5339,7 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
       <c r="X14" s="25"/>
-      <c r="Y14" s="26"/>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
@@ -5831,72 +5363,22 @@
       <c r="AT14" s="26"/>
       <c r="AU14" s="26"/>
       <c r="AV14" s="28"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="44"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="44"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="44"/>
-      <c r="BM14" s="44"/>
-      <c r="BN14" s="44"/>
-      <c r="BO14" s="44"/>
-      <c r="BP14" s="44"/>
-      <c r="BQ14" s="44"/>
-      <c r="BR14" s="44"/>
-      <c r="BS14" s="44"/>
-      <c r="BT14" s="44"/>
-      <c r="BU14" s="44"/>
-      <c r="BV14" s="26"/>
-      <c r="BW14" s="26"/>
-      <c r="BX14" s="26"/>
-      <c r="BY14" s="26"/>
-      <c r="BZ14" s="28"/>
-      <c r="CA14" s="25"/>
-      <c r="CB14" s="26"/>
-      <c r="CC14" s="26"/>
-      <c r="CD14" s="26"/>
-      <c r="CE14" s="26"/>
-      <c r="CF14" s="30"/>
-      <c r="CG14" s="30"/>
-      <c r="CH14" s="30"/>
-      <c r="CI14" s="30"/>
-      <c r="CJ14" s="30"/>
-      <c r="CK14" s="30"/>
-      <c r="CL14" s="30"/>
-      <c r="CM14" s="30"/>
-      <c r="CN14" s="30"/>
-      <c r="CO14" s="30"/>
-      <c r="CP14" s="30"/>
-      <c r="CQ14" s="30"/>
-      <c r="CR14" s="30"/>
-      <c r="CS14" s="30"/>
-      <c r="CT14" s="30"/>
-      <c r="CU14" s="26"/>
-      <c r="CV14" s="26"/>
-      <c r="CW14" s="26"/>
-      <c r="CX14" s="26"/>
-      <c r="CY14" s="31"/>
-    </row>
-    <row r="15" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+    </row>
+    <row r="15" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="53">
         <v>2</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="59"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5942,79 +5424,29 @@
       <c r="AT15" s="22"/>
       <c r="AU15" s="22"/>
       <c r="AV15" s="23"/>
-      <c r="AW15" s="21"/>
+      <c r="AW15" s="22"/>
       <c r="AX15" s="22"/>
       <c r="AY15" s="22"/>
       <c r="AZ15" s="22"/>
       <c r="BA15" s="22"/>
-      <c r="BB15" s="22"/>
-      <c r="BC15" s="22"/>
-      <c r="BD15" s="22"/>
-      <c r="BE15" s="22"/>
-      <c r="BF15" s="22"/>
-      <c r="BG15" s="22"/>
-      <c r="BH15" s="22"/>
-      <c r="BI15" s="22"/>
-      <c r="BJ15" s="22"/>
-      <c r="BK15" s="22"/>
-      <c r="BL15" s="22"/>
-      <c r="BM15" s="22"/>
-      <c r="BN15" s="22"/>
-      <c r="BO15" s="22"/>
-      <c r="BP15" s="22"/>
-      <c r="BQ15" s="22"/>
-      <c r="BR15" s="22"/>
-      <c r="BS15" s="22"/>
-      <c r="BT15" s="22"/>
-      <c r="BU15" s="22"/>
-      <c r="BV15" s="22"/>
-      <c r="BW15" s="22"/>
-      <c r="BX15" s="22"/>
-      <c r="BY15" s="22"/>
-      <c r="BZ15" s="23"/>
-      <c r="CA15" s="21"/>
-      <c r="CB15" s="22"/>
-      <c r="CC15" s="22"/>
-      <c r="CD15" s="22"/>
-      <c r="CE15" s="22"/>
-      <c r="CF15" s="22"/>
-      <c r="CG15" s="22"/>
-      <c r="CH15" s="22"/>
-      <c r="CI15" s="22"/>
-      <c r="CJ15" s="22"/>
-      <c r="CK15" s="22"/>
-      <c r="CL15" s="22"/>
-      <c r="CM15" s="22"/>
-      <c r="CN15" s="22"/>
-      <c r="CO15" s="22"/>
-      <c r="CP15" s="22"/>
-      <c r="CQ15" s="22"/>
-      <c r="CR15" s="22"/>
-      <c r="CS15" s="22"/>
-      <c r="CT15" s="22"/>
-      <c r="CU15" s="22"/>
-      <c r="CV15" s="22"/>
-      <c r="CW15" s="22"/>
-      <c r="CX15" s="22"/>
-      <c r="CY15" s="24"/>
-    </row>
-    <row r="16" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="53" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="96">
+        <v>117</v>
+      </c>
+      <c r="E16" s="95">
         <v>45351</v>
       </c>
-      <c r="F16" s="97">
+      <c r="F16" s="96">
         <v>45355</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -6022,8 +5454,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="65"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="27"/>
@@ -6031,10 +5463,10 @@
       <c r="P16" s="27"/>
       <c r="Q16" s="80"/>
       <c r="R16" s="80"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
       <c r="W16" s="28"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
@@ -6061,79 +5493,29 @@
       <c r="AT16" s="26"/>
       <c r="AU16" s="26"/>
       <c r="AV16" s="28"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="44"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="44"/>
-      <c r="BK16" s="44"/>
-      <c r="BL16" s="44"/>
-      <c r="BM16" s="44"/>
-      <c r="BN16" s="44"/>
-      <c r="BO16" s="44"/>
-      <c r="BP16" s="44"/>
-      <c r="BQ16" s="44"/>
-      <c r="BR16" s="44"/>
-      <c r="BS16" s="44"/>
-      <c r="BT16" s="44"/>
-      <c r="BU16" s="44"/>
-      <c r="BV16" s="26"/>
-      <c r="BW16" s="26"/>
-      <c r="BX16" s="26"/>
-      <c r="BY16" s="26"/>
-      <c r="BZ16" s="28"/>
-      <c r="CA16" s="25"/>
-      <c r="CB16" s="26"/>
-      <c r="CC16" s="26"/>
-      <c r="CD16" s="26"/>
-      <c r="CE16" s="26"/>
-      <c r="CF16" s="30"/>
-      <c r="CG16" s="30"/>
-      <c r="CH16" s="30"/>
-      <c r="CI16" s="30"/>
-      <c r="CJ16" s="30"/>
-      <c r="CK16" s="30"/>
-      <c r="CL16" s="30"/>
-      <c r="CM16" s="30"/>
-      <c r="CN16" s="30"/>
-      <c r="CO16" s="30"/>
-      <c r="CP16" s="30"/>
-      <c r="CQ16" s="30"/>
-      <c r="CR16" s="30"/>
-      <c r="CS16" s="30"/>
-      <c r="CT16" s="30"/>
-      <c r="CU16" s="26"/>
-      <c r="CV16" s="26"/>
-      <c r="CW16" s="26"/>
-      <c r="CX16" s="26"/>
-      <c r="CY16" s="31"/>
-    </row>
-    <row r="17" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+    </row>
+    <row r="17" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="53" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="96">
+        <v>117</v>
+      </c>
+      <c r="E17" s="95">
         <v>45355</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="96">
         <v>45357</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6142,7 +5524,7 @@
       </c>
       <c r="I17" s="65"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="80"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="27"/>
@@ -6150,10 +5532,10 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
       <c r="W17" s="28"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
@@ -6180,79 +5562,29 @@
       <c r="AT17" s="26"/>
       <c r="AU17" s="26"/>
       <c r="AV17" s="28"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="44"/>
-      <c r="BD17" s="44"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="44"/>
-      <c r="BH17" s="44"/>
-      <c r="BI17" s="44"/>
-      <c r="BJ17" s="44"/>
-      <c r="BK17" s="44"/>
-      <c r="BL17" s="44"/>
-      <c r="BM17" s="44"/>
-      <c r="BN17" s="44"/>
-      <c r="BO17" s="44"/>
-      <c r="BP17" s="44"/>
-      <c r="BQ17" s="44"/>
-      <c r="BR17" s="44"/>
-      <c r="BS17" s="44"/>
-      <c r="BT17" s="44"/>
-      <c r="BU17" s="44"/>
-      <c r="BV17" s="26"/>
-      <c r="BW17" s="26"/>
-      <c r="BX17" s="26"/>
-      <c r="BY17" s="26"/>
-      <c r="BZ17" s="28"/>
-      <c r="CA17" s="25"/>
-      <c r="CB17" s="26"/>
-      <c r="CC17" s="26"/>
-      <c r="CD17" s="26"/>
-      <c r="CE17" s="26"/>
-      <c r="CF17" s="30"/>
-      <c r="CG17" s="30"/>
-      <c r="CH17" s="30"/>
-      <c r="CI17" s="30"/>
-      <c r="CJ17" s="30"/>
-      <c r="CK17" s="30"/>
-      <c r="CL17" s="30"/>
-      <c r="CM17" s="30"/>
-      <c r="CN17" s="30"/>
-      <c r="CO17" s="30"/>
-      <c r="CP17" s="30"/>
-      <c r="CQ17" s="30"/>
-      <c r="CR17" s="30"/>
-      <c r="CS17" s="30"/>
-      <c r="CT17" s="30"/>
-      <c r="CU17" s="26"/>
-      <c r="CV17" s="26"/>
-      <c r="CW17" s="26"/>
-      <c r="CX17" s="26"/>
-      <c r="CY17" s="31"/>
-    </row>
-    <row r="18" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+    </row>
+    <row r="18" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="53" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="96">
+        <v>117</v>
+      </c>
+      <c r="E18" s="95">
         <v>45357</v>
       </c>
-      <c r="F18" s="97">
+      <c r="F18" s="96">
         <v>45359</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6269,10 +5601,10 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
       <c r="W18" s="28"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="26"/>
@@ -6299,79 +5631,29 @@
       <c r="AT18" s="26"/>
       <c r="AU18" s="26"/>
       <c r="AV18" s="28"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="44"/>
-      <c r="BD18" s="44"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="44"/>
-      <c r="BH18" s="44"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="44"/>
-      <c r="BK18" s="44"/>
-      <c r="BL18" s="44"/>
-      <c r="BM18" s="44"/>
-      <c r="BN18" s="44"/>
-      <c r="BO18" s="44"/>
-      <c r="BP18" s="44"/>
-      <c r="BQ18" s="44"/>
-      <c r="BR18" s="44"/>
-      <c r="BS18" s="44"/>
-      <c r="BT18" s="44"/>
-      <c r="BU18" s="44"/>
-      <c r="BV18" s="26"/>
-      <c r="BW18" s="26"/>
-      <c r="BX18" s="26"/>
-      <c r="BY18" s="26"/>
-      <c r="BZ18" s="28"/>
-      <c r="CA18" s="25"/>
-      <c r="CB18" s="26"/>
-      <c r="CC18" s="26"/>
-      <c r="CD18" s="26"/>
-      <c r="CE18" s="26"/>
-      <c r="CF18" s="30"/>
-      <c r="CG18" s="30"/>
-      <c r="CH18" s="30"/>
-      <c r="CI18" s="30"/>
-      <c r="CJ18" s="30"/>
-      <c r="CK18" s="30"/>
-      <c r="CL18" s="30"/>
-      <c r="CM18" s="30"/>
-      <c r="CN18" s="30"/>
-      <c r="CO18" s="30"/>
-      <c r="CP18" s="30"/>
-      <c r="CQ18" s="30"/>
-      <c r="CR18" s="30"/>
-      <c r="CS18" s="30"/>
-      <c r="CT18" s="30"/>
-      <c r="CU18" s="26"/>
-      <c r="CV18" s="26"/>
-      <c r="CW18" s="26"/>
-      <c r="CX18" s="26"/>
-      <c r="CY18" s="31"/>
-    </row>
-    <row r="19" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+    </row>
+    <row r="19" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="53" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="96">
+        <v>117</v>
+      </c>
+      <c r="E19" s="95">
         <v>45359</v>
       </c>
-      <c r="F19" s="97">
+      <c r="F19" s="96">
         <v>45363</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -6388,10 +5670,11 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="W19" s="80"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
       <c r="X19" s="32"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
@@ -6417,79 +5700,29 @@
       <c r="AT19" s="26"/>
       <c r="AU19" s="26"/>
       <c r="AV19" s="28"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="44"/>
-      <c r="BH19" s="44"/>
-      <c r="BI19" s="44"/>
-      <c r="BJ19" s="44"/>
-      <c r="BK19" s="44"/>
-      <c r="BL19" s="44"/>
-      <c r="BM19" s="44"/>
-      <c r="BN19" s="44"/>
-      <c r="BO19" s="44"/>
-      <c r="BP19" s="44"/>
-      <c r="BQ19" s="44"/>
-      <c r="BR19" s="44"/>
-      <c r="BS19" s="44"/>
-      <c r="BT19" s="44"/>
-      <c r="BU19" s="44"/>
-      <c r="BV19" s="26"/>
-      <c r="BW19" s="26"/>
-      <c r="BX19" s="26"/>
-      <c r="BY19" s="26"/>
-      <c r="BZ19" s="28"/>
-      <c r="CA19" s="25"/>
-      <c r="CB19" s="26"/>
-      <c r="CC19" s="26"/>
-      <c r="CD19" s="26"/>
-      <c r="CE19" s="26"/>
-      <c r="CF19" s="30"/>
-      <c r="CG19" s="30"/>
-      <c r="CH19" s="30"/>
-      <c r="CI19" s="30"/>
-      <c r="CJ19" s="30"/>
-      <c r="CK19" s="30"/>
-      <c r="CL19" s="30"/>
-      <c r="CM19" s="30"/>
-      <c r="CN19" s="30"/>
-      <c r="CO19" s="30"/>
-      <c r="CP19" s="30"/>
-      <c r="CQ19" s="30"/>
-      <c r="CR19" s="30"/>
-      <c r="CS19" s="30"/>
-      <c r="CT19" s="30"/>
-      <c r="CU19" s="26"/>
-      <c r="CV19" s="26"/>
-      <c r="CW19" s="26"/>
-      <c r="CX19" s="26"/>
-      <c r="CY19" s="31"/>
-    </row>
-    <row r="20" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+    </row>
+    <row r="20" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="53" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="96">
+        <v>117</v>
+      </c>
+      <c r="E20" s="95">
         <v>45363</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="96">
         <v>45365</v>
       </c>
-      <c r="G20" s="85">
+      <c r="G20" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6506,10 +5739,10 @@
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
       <c r="W20" s="28"/>
       <c r="X20" s="25"/>
       <c r="Y20" s="33"/>
@@ -6536,79 +5769,29 @@
       <c r="AT20" s="26"/>
       <c r="AU20" s="26"/>
       <c r="AV20" s="28"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
-      <c r="BM20" s="44"/>
-      <c r="BN20" s="44"/>
-      <c r="BO20" s="44"/>
-      <c r="BP20" s="44"/>
-      <c r="BQ20" s="44"/>
-      <c r="BR20" s="44"/>
-      <c r="BS20" s="44"/>
-      <c r="BT20" s="44"/>
-      <c r="BU20" s="44"/>
-      <c r="BV20" s="26"/>
-      <c r="BW20" s="26"/>
-      <c r="BX20" s="26"/>
-      <c r="BY20" s="26"/>
-      <c r="BZ20" s="28"/>
-      <c r="CA20" s="25"/>
-      <c r="CB20" s="26"/>
-      <c r="CC20" s="26"/>
-      <c r="CD20" s="26"/>
-      <c r="CE20" s="26"/>
-      <c r="CF20" s="30"/>
-      <c r="CG20" s="30"/>
-      <c r="CH20" s="30"/>
-      <c r="CI20" s="30"/>
-      <c r="CJ20" s="30"/>
-      <c r="CK20" s="30"/>
-      <c r="CL20" s="30"/>
-      <c r="CM20" s="30"/>
-      <c r="CN20" s="30"/>
-      <c r="CO20" s="30"/>
-      <c r="CP20" s="30"/>
-      <c r="CQ20" s="30"/>
-      <c r="CR20" s="30"/>
-      <c r="CS20" s="30"/>
-      <c r="CT20" s="30"/>
-      <c r="CU20" s="26"/>
-      <c r="CV20" s="26"/>
-      <c r="CW20" s="26"/>
-      <c r="CX20" s="26"/>
-      <c r="CY20" s="31"/>
-    </row>
-    <row r="21" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+    </row>
+    <row r="21" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="53" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="96">
+        <v>117</v>
+      </c>
+      <c r="E21" s="95">
         <v>45365</v>
       </c>
-      <c r="F21" s="97">
+      <c r="F21" s="96">
         <v>45370</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6625,10 +5808,10 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
       <c r="W21" s="28"/>
       <c r="X21" s="25"/>
       <c r="Y21" s="26"/>
@@ -6655,79 +5838,29 @@
       <c r="AT21" s="26"/>
       <c r="AU21" s="26"/>
       <c r="AV21" s="28"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
-      <c r="BL21" s="44"/>
-      <c r="BM21" s="44"/>
-      <c r="BN21" s="44"/>
-      <c r="BO21" s="44"/>
-      <c r="BP21" s="44"/>
-      <c r="BQ21" s="44"/>
-      <c r="BR21" s="44"/>
-      <c r="BS21" s="44"/>
-      <c r="BT21" s="44"/>
-      <c r="BU21" s="44"/>
-      <c r="BV21" s="26"/>
-      <c r="BW21" s="26"/>
-      <c r="BX21" s="26"/>
-      <c r="BY21" s="26"/>
-      <c r="BZ21" s="28"/>
-      <c r="CA21" s="25"/>
-      <c r="CB21" s="26"/>
-      <c r="CC21" s="26"/>
-      <c r="CD21" s="26"/>
-      <c r="CE21" s="26"/>
-      <c r="CF21" s="30"/>
-      <c r="CG21" s="30"/>
-      <c r="CH21" s="30"/>
-      <c r="CI21" s="30"/>
-      <c r="CJ21" s="30"/>
-      <c r="CK21" s="30"/>
-      <c r="CL21" s="30"/>
-      <c r="CM21" s="30"/>
-      <c r="CN21" s="30"/>
-      <c r="CO21" s="30"/>
-      <c r="CP21" s="30"/>
-      <c r="CQ21" s="30"/>
-      <c r="CR21" s="30"/>
-      <c r="CS21" s="30"/>
-      <c r="CT21" s="30"/>
-      <c r="CU21" s="26"/>
-      <c r="CV21" s="26"/>
-      <c r="CW21" s="26"/>
-      <c r="CX21" s="26"/>
-      <c r="CY21" s="31"/>
-    </row>
-    <row r="22" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+    </row>
+    <row r="22" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="53" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="96">
+        <v>117</v>
+      </c>
+      <c r="E22" s="95">
         <v>45370</v>
       </c>
-      <c r="F22" s="97">
+      <c r="F22" s="96">
         <v>45373</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6774,79 +5907,29 @@
       <c r="AT22" s="26"/>
       <c r="AU22" s="26"/>
       <c r="AV22" s="28"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="44"/>
-      <c r="BM22" s="44"/>
-      <c r="BN22" s="44"/>
-      <c r="BO22" s="44"/>
-      <c r="BP22" s="44"/>
-      <c r="BQ22" s="44"/>
-      <c r="BR22" s="44"/>
-      <c r="BS22" s="44"/>
-      <c r="BT22" s="44"/>
-      <c r="BU22" s="44"/>
-      <c r="BV22" s="26"/>
-      <c r="BW22" s="26"/>
-      <c r="BX22" s="26"/>
-      <c r="BY22" s="26"/>
-      <c r="BZ22" s="28"/>
-      <c r="CA22" s="25"/>
-      <c r="CB22" s="26"/>
-      <c r="CC22" s="26"/>
-      <c r="CD22" s="26"/>
-      <c r="CE22" s="26"/>
-      <c r="CF22" s="30"/>
-      <c r="CG22" s="30"/>
-      <c r="CH22" s="30"/>
-      <c r="CI22" s="30"/>
-      <c r="CJ22" s="30"/>
-      <c r="CK22" s="26"/>
-      <c r="CL22" s="26"/>
-      <c r="CM22" s="26"/>
-      <c r="CN22" s="26"/>
-      <c r="CO22" s="26"/>
-      <c r="CP22" s="30"/>
-      <c r="CQ22" s="30"/>
-      <c r="CR22" s="30"/>
-      <c r="CS22" s="30"/>
-      <c r="CT22" s="30"/>
-      <c r="CU22" s="26"/>
-      <c r="CV22" s="26"/>
-      <c r="CW22" s="26"/>
-      <c r="CX22" s="26"/>
-      <c r="CY22" s="31"/>
-    </row>
-    <row r="23" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+    </row>
+    <row r="23" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="53" t="s">
         <v>107</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="96">
+        <v>117</v>
+      </c>
+      <c r="E23" s="95">
         <v>45373</v>
       </c>
-      <c r="F23" s="97">
+      <c r="F23" s="96">
         <v>45378</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6893,79 +5976,29 @@
       <c r="AT23" s="26"/>
       <c r="AU23" s="26"/>
       <c r="AV23" s="28"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="44"/>
-      <c r="BL23" s="44"/>
-      <c r="BM23" s="44"/>
-      <c r="BN23" s="44"/>
-      <c r="BO23" s="44"/>
-      <c r="BP23" s="44"/>
-      <c r="BQ23" s="44"/>
-      <c r="BR23" s="44"/>
-      <c r="BS23" s="44"/>
-      <c r="BT23" s="44"/>
-      <c r="BU23" s="44"/>
-      <c r="BV23" s="26"/>
-      <c r="BW23" s="26"/>
-      <c r="BX23" s="26"/>
-      <c r="BY23" s="26"/>
-      <c r="BZ23" s="28"/>
-      <c r="CA23" s="25"/>
-      <c r="CB23" s="26"/>
-      <c r="CC23" s="26"/>
-      <c r="CD23" s="26"/>
-      <c r="CE23" s="26"/>
-      <c r="CF23" s="30"/>
-      <c r="CG23" s="30"/>
-      <c r="CH23" s="30"/>
-      <c r="CI23" s="30"/>
-      <c r="CJ23" s="30"/>
-      <c r="CK23" s="26"/>
-      <c r="CL23" s="26"/>
-      <c r="CM23" s="26"/>
-      <c r="CN23" s="26"/>
-      <c r="CO23" s="26"/>
-      <c r="CP23" s="30"/>
-      <c r="CQ23" s="30"/>
-      <c r="CR23" s="30"/>
-      <c r="CS23" s="30"/>
-      <c r="CT23" s="30"/>
-      <c r="CU23" s="26"/>
-      <c r="CV23" s="26"/>
-      <c r="CW23" s="26"/>
-      <c r="CX23" s="26"/>
-      <c r="CY23" s="31"/>
-    </row>
-    <row r="24" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+    </row>
+    <row r="24" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="96">
+        <v>117</v>
+      </c>
+      <c r="E24" s="95">
         <v>45378</v>
       </c>
-      <c r="F24" s="97">
+      <c r="F24" s="96">
         <v>45383</v>
       </c>
-      <c r="G24" s="85">
+      <c r="G24" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7012,79 +6045,29 @@
       <c r="AT24" s="26"/>
       <c r="AU24" s="26"/>
       <c r="AV24" s="26"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="44"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="44"/>
-      <c r="BM24" s="44"/>
-      <c r="BN24" s="44"/>
-      <c r="BO24" s="44"/>
-      <c r="BP24" s="44"/>
-      <c r="BQ24" s="44"/>
-      <c r="BR24" s="44"/>
-      <c r="BS24" s="44"/>
-      <c r="BT24" s="44"/>
-      <c r="BU24" s="44"/>
-      <c r="BV24" s="26"/>
-      <c r="BW24" s="26"/>
-      <c r="BX24" s="26"/>
-      <c r="BY24" s="26"/>
-      <c r="BZ24" s="28"/>
-      <c r="CA24" s="25"/>
-      <c r="CB24" s="26"/>
-      <c r="CC24" s="26"/>
-      <c r="CD24" s="26"/>
-      <c r="CE24" s="26"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="26"/>
-      <c r="CL24" s="26"/>
-      <c r="CM24" s="26"/>
-      <c r="CN24" s="26"/>
-      <c r="CO24" s="26"/>
-      <c r="CP24" s="30"/>
-      <c r="CQ24" s="30"/>
-      <c r="CR24" s="30"/>
-      <c r="CS24" s="30"/>
-      <c r="CT24" s="30"/>
-      <c r="CU24" s="26"/>
-      <c r="CV24" s="26"/>
-      <c r="CW24" s="26"/>
-      <c r="CX24" s="26"/>
-      <c r="CY24" s="31"/>
-    </row>
-    <row r="25" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+    </row>
+    <row r="25" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="53" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="96">
+        <v>117</v>
+      </c>
+      <c r="E25" s="95">
         <v>45383</v>
       </c>
-      <c r="F25" s="97">
+      <c r="F25" s="96">
         <v>45386</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7131,79 +6114,29 @@
       <c r="AT25" s="26"/>
       <c r="AU25" s="26"/>
       <c r="AV25" s="26"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
-      <c r="BM25" s="44"/>
-      <c r="BN25" s="44"/>
-      <c r="BO25" s="44"/>
-      <c r="BP25" s="44"/>
-      <c r="BQ25" s="44"/>
-      <c r="BR25" s="44"/>
-      <c r="BS25" s="44"/>
-      <c r="BT25" s="44"/>
-      <c r="BU25" s="44"/>
-      <c r="BV25" s="26"/>
-      <c r="BW25" s="26"/>
-      <c r="BX25" s="26"/>
-      <c r="BY25" s="26"/>
-      <c r="BZ25" s="28"/>
-      <c r="CA25" s="25"/>
-      <c r="CB25" s="26"/>
-      <c r="CC25" s="26"/>
-      <c r="CD25" s="26"/>
-      <c r="CE25" s="26"/>
-      <c r="CF25" s="30"/>
-      <c r="CG25" s="30"/>
-      <c r="CH25" s="30"/>
-      <c r="CI25" s="30"/>
-      <c r="CJ25" s="30"/>
-      <c r="CK25" s="26"/>
-      <c r="CL25" s="26"/>
-      <c r="CM25" s="26"/>
-      <c r="CN25" s="26"/>
-      <c r="CO25" s="26"/>
-      <c r="CP25" s="30"/>
-      <c r="CQ25" s="30"/>
-      <c r="CR25" s="30"/>
-      <c r="CS25" s="30"/>
-      <c r="CT25" s="30"/>
-      <c r="CU25" s="26"/>
-      <c r="CV25" s="26"/>
-      <c r="CW25" s="26"/>
-      <c r="CX25" s="26"/>
-      <c r="CY25" s="31"/>
-    </row>
-    <row r="26" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+    </row>
+    <row r="26" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="53" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="96">
+        <v>117</v>
+      </c>
+      <c r="E26" s="95">
         <v>45386</v>
       </c>
-      <c r="F26" s="97">
+      <c r="F26" s="96">
         <v>45391</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7250,72 +6183,22 @@
       <c r="AT26" s="26"/>
       <c r="AU26" s="26"/>
       <c r="AV26" s="26"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-      <c r="BM26" s="44"/>
-      <c r="BN26" s="44"/>
-      <c r="BO26" s="44"/>
-      <c r="BP26" s="44"/>
-      <c r="BQ26" s="44"/>
-      <c r="BR26" s="44"/>
-      <c r="BS26" s="44"/>
-      <c r="BT26" s="44"/>
-      <c r="BU26" s="44"/>
-      <c r="BV26" s="26"/>
-      <c r="BW26" s="26"/>
-      <c r="BX26" s="26"/>
-      <c r="BY26" s="26"/>
-      <c r="BZ26" s="28"/>
-      <c r="CA26" s="25"/>
-      <c r="CB26" s="26"/>
-      <c r="CC26" s="26"/>
-      <c r="CD26" s="26"/>
-      <c r="CE26" s="26"/>
-      <c r="CF26" s="30"/>
-      <c r="CG26" s="30"/>
-      <c r="CH26" s="30"/>
-      <c r="CI26" s="30"/>
-      <c r="CJ26" s="30"/>
-      <c r="CK26" s="26"/>
-      <c r="CL26" s="26"/>
-      <c r="CM26" s="26"/>
-      <c r="CN26" s="26"/>
-      <c r="CO26" s="26"/>
-      <c r="CP26" s="30"/>
-      <c r="CQ26" s="30"/>
-      <c r="CR26" s="30"/>
-      <c r="CS26" s="30"/>
-      <c r="CT26" s="30"/>
-      <c r="CU26" s="26"/>
-      <c r="CV26" s="26"/>
-      <c r="CW26" s="26"/>
-      <c r="CX26" s="26"/>
-      <c r="CY26" s="31"/>
-    </row>
-    <row r="27" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+    </row>
+    <row r="27" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="53">
         <v>3</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="59"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7361,79 +6244,29 @@
       <c r="AT27" s="22"/>
       <c r="AU27" s="22"/>
       <c r="AV27" s="23"/>
-      <c r="AW27" s="21"/>
+      <c r="AW27" s="22"/>
       <c r="AX27" s="22"/>
       <c r="AY27" s="22"/>
       <c r="AZ27" s="22"/>
       <c r="BA27" s="22"/>
-      <c r="BB27" s="22"/>
-      <c r="BC27" s="22"/>
-      <c r="BD27" s="22"/>
-      <c r="BE27" s="22"/>
-      <c r="BF27" s="22"/>
-      <c r="BG27" s="22"/>
-      <c r="BH27" s="22"/>
-      <c r="BI27" s="22"/>
-      <c r="BJ27" s="22"/>
-      <c r="BK27" s="22"/>
-      <c r="BL27" s="22"/>
-      <c r="BM27" s="22"/>
-      <c r="BN27" s="22"/>
-      <c r="BO27" s="22"/>
-      <c r="BP27" s="22"/>
-      <c r="BQ27" s="22"/>
-      <c r="BR27" s="22"/>
-      <c r="BS27" s="22"/>
-      <c r="BT27" s="22"/>
-      <c r="BU27" s="22"/>
-      <c r="BV27" s="22"/>
-      <c r="BW27" s="22"/>
-      <c r="BX27" s="22"/>
-      <c r="BY27" s="22"/>
-      <c r="BZ27" s="23"/>
-      <c r="CA27" s="21"/>
-      <c r="CB27" s="22"/>
-      <c r="CC27" s="22"/>
-      <c r="CD27" s="22"/>
-      <c r="CE27" s="22"/>
-      <c r="CF27" s="22"/>
-      <c r="CG27" s="22"/>
-      <c r="CH27" s="22"/>
-      <c r="CI27" s="22"/>
-      <c r="CJ27" s="22"/>
-      <c r="CK27" s="22"/>
-      <c r="CL27" s="22"/>
-      <c r="CM27" s="22"/>
-      <c r="CN27" s="22"/>
-      <c r="CO27" s="22"/>
-      <c r="CP27" s="22"/>
-      <c r="CQ27" s="22"/>
-      <c r="CR27" s="22"/>
-      <c r="CS27" s="22"/>
-      <c r="CT27" s="22"/>
-      <c r="CU27" s="22"/>
-      <c r="CV27" s="22"/>
-      <c r="CW27" s="22"/>
-      <c r="CX27" s="22"/>
-      <c r="CY27" s="24"/>
-    </row>
-    <row r="28" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="53" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="96">
+        <v>117</v>
+      </c>
+      <c r="E28" s="95">
         <v>45391</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="96">
         <v>45397</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="84">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7480,79 +6313,29 @@
       <c r="AT28" s="33"/>
       <c r="AU28" s="33"/>
       <c r="AV28" s="33"/>
-      <c r="AW28" s="104"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="26"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28" s="26"/>
-      <c r="BL28" s="44"/>
-      <c r="BM28" s="44"/>
-      <c r="BN28" s="44"/>
-      <c r="BO28" s="44"/>
-      <c r="BP28" s="44"/>
-      <c r="BQ28" s="44"/>
-      <c r="BR28" s="44"/>
-      <c r="BS28" s="44"/>
-      <c r="BT28" s="44"/>
-      <c r="BU28" s="44"/>
-      <c r="BV28" s="26"/>
-      <c r="BW28" s="26"/>
-      <c r="BX28" s="26"/>
-      <c r="BY28" s="26"/>
-      <c r="BZ28" s="28"/>
-      <c r="CA28" s="25"/>
-      <c r="CB28" s="26"/>
-      <c r="CC28" s="26"/>
-      <c r="CD28" s="26"/>
-      <c r="CE28" s="26"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
-      <c r="CH28" s="30"/>
-      <c r="CI28" s="30"/>
-      <c r="CJ28" s="30"/>
-      <c r="CK28" s="26"/>
-      <c r="CL28" s="26"/>
-      <c r="CM28" s="26"/>
-      <c r="CN28" s="26"/>
-      <c r="CO28" s="26"/>
-      <c r="CP28" s="30"/>
-      <c r="CQ28" s="30"/>
-      <c r="CR28" s="30"/>
-      <c r="CS28" s="30"/>
-      <c r="CT28" s="30"/>
-      <c r="CU28" s="26"/>
-      <c r="CV28" s="26"/>
-      <c r="CW28" s="26"/>
-      <c r="CX28" s="26"/>
-      <c r="CY28" s="31"/>
-    </row>
-    <row r="29" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+    </row>
+    <row r="29" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="53" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="96">
+        <v>117</v>
+      </c>
+      <c r="E29" s="95">
         <v>45397</v>
       </c>
-      <c r="F29" s="97">
+      <c r="F29" s="96">
         <v>45401</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7599,79 +6382,29 @@
       <c r="AT29" s="26"/>
       <c r="AU29" s="26"/>
       <c r="AV29" s="28"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="104"/>
-      <c r="AY29" s="104"/>
-      <c r="AZ29" s="104"/>
-      <c r="BA29" s="104"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="44"/>
-      <c r="BM29" s="44"/>
-      <c r="BN29" s="44"/>
-      <c r="BO29" s="44"/>
-      <c r="BP29" s="44"/>
-      <c r="BQ29" s="44"/>
-      <c r="BR29" s="44"/>
-      <c r="BS29" s="44"/>
-      <c r="BT29" s="44"/>
-      <c r="BU29" s="44"/>
-      <c r="BV29" s="26"/>
-      <c r="BW29" s="26"/>
-      <c r="BX29" s="26"/>
-      <c r="BY29" s="26"/>
-      <c r="BZ29" s="28"/>
-      <c r="CA29" s="25"/>
-      <c r="CB29" s="26"/>
-      <c r="CC29" s="26"/>
-      <c r="CD29" s="26"/>
-      <c r="CE29" s="26"/>
-      <c r="CF29" s="30"/>
-      <c r="CG29" s="30"/>
-      <c r="CH29" s="30"/>
-      <c r="CI29" s="30"/>
-      <c r="CJ29" s="30"/>
-      <c r="CK29" s="26"/>
-      <c r="CL29" s="26"/>
-      <c r="CM29" s="26"/>
-      <c r="CN29" s="26"/>
-      <c r="CO29" s="26"/>
-      <c r="CP29" s="30"/>
-      <c r="CQ29" s="30"/>
-      <c r="CR29" s="30"/>
-      <c r="CS29" s="30"/>
-      <c r="CT29" s="30"/>
-      <c r="CU29" s="26"/>
-      <c r="CV29" s="26"/>
-      <c r="CW29" s="26"/>
-      <c r="CX29" s="26"/>
-      <c r="CY29" s="31"/>
-    </row>
-    <row r="30" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
+    </row>
+    <row r="30" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="96">
+        <v>117</v>
+      </c>
+      <c r="E30" s="95">
         <v>45401</v>
       </c>
-      <c r="F30" s="97">
+      <c r="F30" s="96">
         <v>45408</v>
       </c>
-      <c r="G30" s="85">
+      <c r="G30" s="84">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -7718,79 +6451,29 @@
       <c r="AT30" s="26"/>
       <c r="AU30" s="26"/>
       <c r="AV30" s="28"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="104"/>
-      <c r="BC30" s="104"/>
-      <c r="BD30" s="104"/>
-      <c r="BE30" s="104"/>
-      <c r="BF30" s="104"/>
-      <c r="BG30" s="26"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="26"/>
-      <c r="BK30" s="26"/>
-      <c r="BL30" s="102"/>
-      <c r="BM30" s="102"/>
-      <c r="BN30" s="102"/>
-      <c r="BO30" s="102"/>
-      <c r="BP30" s="102"/>
-      <c r="BQ30" s="102"/>
-      <c r="BR30" s="102"/>
-      <c r="BS30" s="102"/>
-      <c r="BT30" s="102"/>
-      <c r="BU30" s="102"/>
-      <c r="BV30" s="26"/>
-      <c r="BW30" s="26"/>
-      <c r="BX30" s="26"/>
-      <c r="BY30" s="26"/>
-      <c r="BZ30" s="28"/>
-      <c r="CA30" s="25"/>
-      <c r="CB30" s="26"/>
-      <c r="CC30" s="26"/>
-      <c r="CD30" s="26"/>
-      <c r="CE30" s="26"/>
-      <c r="CF30" s="30"/>
-      <c r="CG30" s="30"/>
-      <c r="CH30" s="30"/>
-      <c r="CI30" s="30"/>
-      <c r="CJ30" s="30"/>
-      <c r="CK30" s="26"/>
-      <c r="CL30" s="26"/>
-      <c r="CM30" s="26"/>
-      <c r="CN30" s="26"/>
-      <c r="CO30" s="26"/>
-      <c r="CP30" s="30"/>
-      <c r="CQ30" s="30"/>
-      <c r="CR30" s="30"/>
-      <c r="CS30" s="30"/>
-      <c r="CT30" s="30"/>
-      <c r="CU30" s="26"/>
-      <c r="CV30" s="26"/>
-      <c r="CW30" s="26"/>
-      <c r="CX30" s="26"/>
-      <c r="CY30" s="31"/>
-    </row>
-    <row r="31" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+    </row>
+    <row r="31" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="53" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="96">
+        <v>117</v>
+      </c>
+      <c r="E31" s="95">
         <v>45408</v>
       </c>
-      <c r="F31" s="97">
+      <c r="F31" s="96">
         <v>45418</v>
       </c>
-      <c r="G31" s="85">
+      <c r="G31" s="84">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7839,79 +6522,29 @@
       <c r="AT31" s="26"/>
       <c r="AU31" s="26"/>
       <c r="AV31" s="28"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="104"/>
-      <c r="BH31" s="104"/>
-      <c r="BI31" s="104"/>
-      <c r="BJ31" s="104"/>
-      <c r="BK31" s="104"/>
-      <c r="BL31" s="105"/>
-      <c r="BM31" s="105"/>
-      <c r="BN31" s="105"/>
-      <c r="BO31" s="105"/>
-      <c r="BP31" s="105"/>
-      <c r="BQ31" s="105"/>
-      <c r="BR31" s="105"/>
-      <c r="BS31" s="105"/>
-      <c r="BT31" s="105"/>
-      <c r="BU31" s="105"/>
-      <c r="BV31" s="26"/>
-      <c r="BW31" s="26"/>
-      <c r="BX31" s="26"/>
-      <c r="BY31" s="26"/>
-      <c r="BZ31" s="28"/>
-      <c r="CA31" s="25"/>
-      <c r="CB31" s="26"/>
-      <c r="CC31" s="26"/>
-      <c r="CD31" s="26"/>
-      <c r="CE31" s="26"/>
-      <c r="CF31" s="30"/>
-      <c r="CG31" s="30"/>
-      <c r="CH31" s="30"/>
-      <c r="CI31" s="30"/>
-      <c r="CJ31" s="30"/>
-      <c r="CK31" s="26"/>
-      <c r="CL31" s="26"/>
-      <c r="CM31" s="26"/>
-      <c r="CN31" s="26"/>
-      <c r="CO31" s="26"/>
-      <c r="CP31" s="30"/>
-      <c r="CQ31" s="30"/>
-      <c r="CR31" s="30"/>
-      <c r="CS31" s="30"/>
-      <c r="CT31" s="30"/>
-      <c r="CU31" s="26"/>
-      <c r="CV31" s="26"/>
-      <c r="CW31" s="26"/>
-      <c r="CX31" s="26"/>
-      <c r="CY31" s="31"/>
-    </row>
-    <row r="32" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW31" s="29"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="29"/>
+      <c r="AZ31" s="29"/>
+      <c r="BA31" s="29"/>
+    </row>
+    <row r="32" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="53" t="s">
         <v>113</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="96">
+        <v>117</v>
+      </c>
+      <c r="E32" s="95">
         <v>45418</v>
       </c>
-      <c r="F32" s="97">
+      <c r="F32" s="96">
         <v>45425</v>
       </c>
-      <c r="G32" s="85">
+      <c r="G32" s="84">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -7958,72 +6591,22 @@
       <c r="AT32" s="26"/>
       <c r="AU32" s="26"/>
       <c r="AV32" s="28"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="104"/>
-      <c r="BM32" s="104"/>
-      <c r="BN32" s="104"/>
-      <c r="BO32" s="104"/>
-      <c r="BP32" s="104"/>
-      <c r="BQ32" s="102"/>
-      <c r="BR32" s="102"/>
-      <c r="BS32" s="102"/>
-      <c r="BT32" s="102"/>
-      <c r="BU32" s="102"/>
-      <c r="BV32" s="26"/>
-      <c r="BW32" s="26"/>
-      <c r="BX32" s="26"/>
-      <c r="BY32" s="26"/>
-      <c r="BZ32" s="28"/>
-      <c r="CA32" s="25"/>
-      <c r="CB32" s="26"/>
-      <c r="CC32" s="26"/>
-      <c r="CD32" s="26"/>
-      <c r="CE32" s="26"/>
-      <c r="CF32" s="30"/>
-      <c r="CG32" s="30"/>
-      <c r="CH32" s="30"/>
-      <c r="CI32" s="30"/>
-      <c r="CJ32" s="30"/>
-      <c r="CK32" s="26"/>
-      <c r="CL32" s="26"/>
-      <c r="CM32" s="26"/>
-      <c r="CN32" s="26"/>
-      <c r="CO32" s="26"/>
-      <c r="CP32" s="30"/>
-      <c r="CQ32" s="30"/>
-      <c r="CR32" s="30"/>
-      <c r="CS32" s="30"/>
-      <c r="CT32" s="30"/>
-      <c r="CU32" s="26"/>
-      <c r="CV32" s="26"/>
-      <c r="CW32" s="26"/>
-      <c r="CX32" s="26"/>
-      <c r="CY32" s="31"/>
-    </row>
-    <row r="33" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+    </row>
+    <row r="33" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="53">
         <v>4</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D33" s="59"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8069,79 +6652,29 @@
       <c r="AT33" s="22"/>
       <c r="AU33" s="22"/>
       <c r="AV33" s="23"/>
-      <c r="AW33" s="21"/>
+      <c r="AW33" s="22"/>
       <c r="AX33" s="22"/>
       <c r="AY33" s="22"/>
       <c r="AZ33" s="22"/>
       <c r="BA33" s="22"/>
-      <c r="BB33" s="22"/>
-      <c r="BC33" s="22"/>
-      <c r="BD33" s="22"/>
-      <c r="BE33" s="22"/>
-      <c r="BF33" s="22"/>
-      <c r="BG33" s="22"/>
-      <c r="BH33" s="22"/>
-      <c r="BI33" s="22"/>
-      <c r="BJ33" s="22"/>
-      <c r="BK33" s="22"/>
-      <c r="BL33" s="22"/>
-      <c r="BM33" s="22"/>
-      <c r="BN33" s="22"/>
-      <c r="BO33" s="22"/>
-      <c r="BP33" s="22"/>
-      <c r="BQ33" s="22"/>
-      <c r="BR33" s="22"/>
-      <c r="BS33" s="22"/>
-      <c r="BT33" s="22"/>
-      <c r="BU33" s="22"/>
-      <c r="BV33" s="22"/>
-      <c r="BW33" s="22"/>
-      <c r="BX33" s="22"/>
-      <c r="BY33" s="22"/>
-      <c r="BZ33" s="23"/>
-      <c r="CA33" s="21"/>
-      <c r="CB33" s="22"/>
-      <c r="CC33" s="22"/>
-      <c r="CD33" s="22"/>
-      <c r="CE33" s="22"/>
-      <c r="CF33" s="22"/>
-      <c r="CG33" s="22"/>
-      <c r="CH33" s="22"/>
-      <c r="CI33" s="22"/>
-      <c r="CJ33" s="22"/>
-      <c r="CK33" s="22"/>
-      <c r="CL33" s="22"/>
-      <c r="CM33" s="22"/>
-      <c r="CN33" s="22"/>
-      <c r="CO33" s="22"/>
-      <c r="CP33" s="22"/>
-      <c r="CQ33" s="22"/>
-      <c r="CR33" s="22"/>
-      <c r="CS33" s="22"/>
-      <c r="CT33" s="22"/>
-      <c r="CU33" s="22"/>
-      <c r="CV33" s="22"/>
-      <c r="CW33" s="22"/>
-      <c r="CX33" s="22"/>
-      <c r="CY33" s="24"/>
-    </row>
-    <row r="34" spans="2:103" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="96">
+        <v>117</v>
+      </c>
+      <c r="E34" s="95">
         <v>45425</v>
       </c>
-      <c r="F34" s="97">
+      <c r="F34" s="96">
         <v>45434</v>
       </c>
-      <c r="G34" s="85">
+      <c r="G34" s="84">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -8188,78 +6721,29 @@
       <c r="AT34" s="26"/>
       <c r="AU34" s="26"/>
       <c r="AV34" s="28"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="44"/>
-      <c r="BN34" s="44"/>
-      <c r="BO34" s="44"/>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="104"/>
-      <c r="BR34" s="104"/>
-      <c r="BS34" s="104"/>
-      <c r="BT34" s="104"/>
-      <c r="BU34" s="104"/>
-      <c r="BV34" s="104"/>
-      <c r="BW34" s="104"/>
-      <c r="BX34" s="26"/>
-      <c r="BY34" s="26"/>
-      <c r="BZ34" s="28"/>
-      <c r="CA34" s="25"/>
-      <c r="CC34" s="35"/>
-      <c r="CD34" s="35"/>
-      <c r="CE34" s="35"/>
-      <c r="CF34" s="30"/>
-      <c r="CG34" s="30"/>
-      <c r="CH34" s="30"/>
-      <c r="CI34" s="30"/>
-      <c r="CJ34" s="30"/>
-      <c r="CK34" s="26"/>
-      <c r="CL34" s="26"/>
-      <c r="CM34" s="26"/>
-      <c r="CN34" s="26"/>
-      <c r="CO34" s="26"/>
-      <c r="CP34" s="30"/>
-      <c r="CQ34" s="30"/>
-      <c r="CR34" s="30"/>
-      <c r="CS34" s="30"/>
-      <c r="CT34" s="30"/>
-      <c r="CU34" s="26"/>
-      <c r="CV34" s="26"/>
-      <c r="CW34" s="26"/>
-      <c r="CX34" s="26"/>
-      <c r="CY34" s="31"/>
-    </row>
-    <row r="35" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="29"/>
+    </row>
+    <row r="35" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="96">
+        <v>117</v>
+      </c>
+      <c r="E35" s="95">
         <v>45434</v>
       </c>
-      <c r="F35" s="97">
+      <c r="F35" s="96">
         <v>45443</v>
       </c>
-      <c r="G35" s="85">
+      <c r="G35" s="84">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -8306,79 +6790,29 @@
       <c r="AT35" s="26"/>
       <c r="AU35" s="26"/>
       <c r="AV35" s="28"/>
-      <c r="AW35" s="25"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="44"/>
-      <c r="BC35" s="44"/>
-      <c r="BD35" s="44"/>
-      <c r="BE35" s="44"/>
-      <c r="BF35" s="44"/>
-      <c r="BG35" s="26"/>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
-      <c r="BL35" s="44"/>
-      <c r="BM35" s="44"/>
-      <c r="BN35" s="44"/>
-      <c r="BO35" s="44"/>
-      <c r="BP35" s="44"/>
-      <c r="BQ35" s="44"/>
-      <c r="BR35" s="44"/>
-      <c r="BS35" s="44"/>
-      <c r="BT35" s="44"/>
-      <c r="BU35" s="44"/>
-      <c r="BV35" s="26"/>
-      <c r="BW35" s="26"/>
-      <c r="BX35" s="104"/>
-      <c r="BY35" s="104"/>
-      <c r="BZ35" s="104"/>
-      <c r="CA35" s="81"/>
-      <c r="CB35" s="81"/>
-      <c r="CC35" s="81"/>
-      <c r="CD35" s="81"/>
-      <c r="CE35" s="26"/>
-      <c r="CF35" s="30"/>
-      <c r="CG35" s="30"/>
-      <c r="CH35" s="30"/>
-      <c r="CI35" s="30"/>
-      <c r="CJ35" s="30"/>
-      <c r="CK35" s="26"/>
-      <c r="CL35" s="26"/>
-      <c r="CM35" s="26"/>
-      <c r="CN35" s="26"/>
-      <c r="CO35" s="26"/>
-      <c r="CP35" s="30"/>
-      <c r="CQ35" s="30"/>
-      <c r="CR35" s="30"/>
-      <c r="CS35" s="30"/>
-      <c r="CT35" s="30"/>
-      <c r="CU35" s="26"/>
-      <c r="CV35" s="26"/>
-      <c r="CW35" s="26"/>
-      <c r="CX35" s="26"/>
-      <c r="CY35" s="31"/>
-    </row>
-    <row r="36" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+    </row>
+    <row r="36" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="96">
+        <v>117</v>
+      </c>
+      <c r="E36" s="95">
         <v>45443</v>
       </c>
-      <c r="F36" s="97">
+      <c r="F36" s="96">
         <v>45454</v>
       </c>
-      <c r="G36" s="85">
+      <c r="G36" s="84">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -8425,81 +6859,31 @@
       <c r="AT36" s="26"/>
       <c r="AU36" s="26"/>
       <c r="AV36" s="28"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="44"/>
-      <c r="BC36" s="44"/>
-      <c r="BD36" s="44"/>
-      <c r="BE36" s="44"/>
-      <c r="BF36" s="44"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="44"/>
-      <c r="BM36" s="44"/>
-      <c r="BN36" s="44"/>
-      <c r="BO36" s="44"/>
-      <c r="BP36" s="44"/>
-      <c r="BQ36" s="44"/>
-      <c r="BR36" s="44"/>
-      <c r="BS36" s="44"/>
-      <c r="BT36" s="44"/>
-      <c r="BU36" s="44"/>
-      <c r="BV36" s="26"/>
-      <c r="BW36" s="26"/>
-      <c r="BX36" s="26"/>
-      <c r="BY36" s="26"/>
-      <c r="BZ36" s="28"/>
-      <c r="CA36" s="25"/>
-      <c r="CB36" s="26"/>
-      <c r="CC36" s="26"/>
-      <c r="CD36" s="26"/>
-      <c r="CE36" s="81"/>
-      <c r="CF36" s="81"/>
-      <c r="CG36" s="81"/>
-      <c r="CH36" s="81"/>
-      <c r="CI36" s="81"/>
-      <c r="CJ36" s="81"/>
-      <c r="CK36" s="81"/>
-      <c r="CL36" s="26"/>
-      <c r="CM36" s="26"/>
-      <c r="CN36" s="26"/>
-      <c r="CO36" s="26"/>
-      <c r="CP36" s="30"/>
-      <c r="CQ36" s="30"/>
-      <c r="CR36" s="30"/>
-      <c r="CS36" s="30"/>
-      <c r="CT36" s="30"/>
-      <c r="CU36" s="26"/>
-      <c r="CV36" s="26"/>
-      <c r="CW36" s="26"/>
-      <c r="CX36" s="26"/>
-      <c r="CY36" s="31"/>
-    </row>
-    <row r="37" spans="2:103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+    </row>
+    <row r="37" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="96">
+        <v>117</v>
+      </c>
+      <c r="E37" s="95">
+        <v>45443</v>
+      </c>
+      <c r="F37" s="96">
         <v>45454</v>
       </c>
-      <c r="F37" s="97">
-        <v>45463</v>
-      </c>
-      <c r="G37" s="85">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="G37" s="84">
+        <f t="shared" ref="G37" si="1">IF(F37-E37=0,"",F37-E37)</f>
+        <v>11</v>
       </c>
       <c r="H37" s="70">
         <v>0</v>
@@ -8544,198 +6928,171 @@
       <c r="AT37" s="26"/>
       <c r="AU37" s="26"/>
       <c r="AV37" s="28"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="26"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="44"/>
-      <c r="BC37" s="44"/>
-      <c r="BD37" s="44"/>
-      <c r="BE37" s="44"/>
-      <c r="BF37" s="44"/>
-      <c r="BG37" s="26"/>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="26"/>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="26"/>
-      <c r="BL37" s="44"/>
-      <c r="BM37" s="44"/>
-      <c r="BN37" s="44"/>
-      <c r="BO37" s="44"/>
-      <c r="BP37" s="44"/>
-      <c r="BQ37" s="44"/>
-      <c r="BR37" s="44"/>
-      <c r="BS37" s="44"/>
-      <c r="BT37" s="44"/>
-      <c r="BU37" s="44"/>
-      <c r="BV37" s="26"/>
-      <c r="BW37" s="26"/>
-      <c r="BX37" s="26"/>
-      <c r="BY37" s="26"/>
-      <c r="BZ37" s="28"/>
-      <c r="CA37" s="25"/>
-      <c r="CB37" s="26"/>
-      <c r="CC37" s="26"/>
-      <c r="CD37" s="26"/>
-      <c r="CE37" s="26"/>
-      <c r="CF37" s="30"/>
-      <c r="CG37" s="30"/>
-      <c r="CH37" s="30"/>
-      <c r="CI37" s="30"/>
-      <c r="CJ37" s="30"/>
-      <c r="CK37" s="26"/>
-      <c r="CL37" s="81"/>
-      <c r="CM37" s="81"/>
-      <c r="CN37" s="81"/>
-      <c r="CO37" s="81"/>
-      <c r="CP37" s="81"/>
-      <c r="CQ37" s="81"/>
-      <c r="CR37" s="81"/>
-      <c r="CS37" s="30"/>
-      <c r="CT37" s="30"/>
-      <c r="CU37" s="26"/>
-      <c r="CV37" s="26"/>
-      <c r="CW37" s="26"/>
-      <c r="CX37" s="26"/>
-      <c r="CY37" s="26"/>
-    </row>
-    <row r="38" spans="2:103" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="61" t="s">
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+    </row>
+    <row r="38" spans="2:53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="95">
+        <v>45342</v>
+      </c>
+      <c r="F38" s="96">
+        <v>45359</v>
+      </c>
+      <c r="G38" s="84">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H38" s="70">
+        <v>0</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V38" s="26"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+    </row>
+    <row r="39" spans="2:53" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="97">
+        <v>45342</v>
+      </c>
+      <c r="F39" s="98">
+        <v>45429</v>
+      </c>
+      <c r="G39" s="84">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H39" s="72">
+        <v>0</v>
+      </c>
+      <c r="I39" s="66"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.35">
+      <c r="U40" s="120"/>
+      <c r="AW40" s="120"/>
+    </row>
+    <row r="41" spans="2:53" x14ac:dyDescent="0.35">
+      <c r="U41" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="98">
-        <v>45463</v>
-      </c>
-      <c r="F38" s="99">
-        <v>45471</v>
-      </c>
-      <c r="G38" s="85">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H38" s="72">
-        <v>0</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="34"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
-      <c r="BD38" s="45"/>
-      <c r="BE38" s="45"/>
-      <c r="BF38" s="45"/>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35"/>
-      <c r="BK38" s="35"/>
-      <c r="BL38" s="45"/>
-      <c r="BM38" s="45"/>
-      <c r="BN38" s="45"/>
-      <c r="BO38" s="45"/>
-      <c r="BP38" s="45"/>
-      <c r="BQ38" s="45"/>
-      <c r="BR38" s="45"/>
-      <c r="BS38" s="45"/>
-      <c r="BT38" s="45"/>
-      <c r="BU38" s="45"/>
-      <c r="BV38" s="35"/>
-      <c r="BW38" s="35"/>
-      <c r="BX38" s="35"/>
-      <c r="BY38" s="35"/>
-      <c r="BZ38" s="37"/>
-      <c r="CA38" s="34"/>
-      <c r="CB38" s="35"/>
-      <c r="CC38" s="35"/>
-      <c r="CD38" s="35"/>
-      <c r="CE38" s="35"/>
-      <c r="CF38" s="39"/>
-      <c r="CG38" s="39"/>
-      <c r="CH38" s="39"/>
-      <c r="CI38" s="39"/>
-      <c r="CJ38" s="39"/>
-      <c r="CK38" s="26"/>
-      <c r="CL38" s="26"/>
-      <c r="CM38" s="26"/>
-      <c r="CN38" s="26"/>
-      <c r="CO38" s="26"/>
-      <c r="CP38" s="39"/>
-      <c r="CQ38" s="39"/>
-      <c r="CR38" s="39"/>
-      <c r="CS38" s="81"/>
-      <c r="CT38" s="81"/>
-      <c r="CU38" s="81"/>
-      <c r="CV38" s="81"/>
-      <c r="CW38" s="81"/>
-      <c r="CX38" s="81"/>
-      <c r="CY38" s="81"/>
-    </row>
-    <row r="45" spans="2:103" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="3"/>
+      <c r="AW41" s="120" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:53" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="CU8:CY8"/>
+  <mergeCells count="11">
+    <mergeCell ref="X7:BA7"/>
     <mergeCell ref="I7:W7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="AW7:BZ7"/>
-    <mergeCell ref="CA7:CY7"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
@@ -8743,12 +7100,10 @@
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AR8:AV8"/>
     <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="AH8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:H38">
+  <conditionalFormatting sqref="H10:H39">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="percent" val="0"/>
@@ -8766,24 +7121,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="22.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.23046875" customWidth="1"/>
+    <col min="3" max="3" width="26.15234375" customWidth="1"/>
+    <col min="4" max="4" width="20.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -8803,453 +7155,453 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="100" t="s">
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>81</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="100" t="s">
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>81</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="100" t="s">
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>81</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="99" t="s">
         <v>81</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="100" t="s">
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="100" t="s">
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="100" t="s">
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="100" t="s">
+    <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="100" t="s">
+    <row r="12" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A12" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="100" t="s">
+    <row r="13" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A13" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="100" t="s">
+    <row r="14" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="100" t="s">
+    <row r="15" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="100" t="s">
+      <c r="C15" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="100" t="s">
+    <row r="17" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="100" t="s">
+    <row r="18" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A18" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+    <row r="19" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+    <row r="20" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A20" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="100" t="s">
+      <c r="C20" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="100" t="s">
+    <row r="21" spans="1:6" ht="186" x14ac:dyDescent="0.35">
+      <c r="A21" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="B21" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+    <row r="22" spans="1:6" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="100" t="s">
+      <c r="B22" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="100" t="s">
+    <row r="23" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A23" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="99" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
+    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/CartaGantt_Maquina_de_ventas.xlsx
+++ b/docs/CartaGantt_Maquina_de_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desar\Desktop\seller\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E016DA7-F075-41CD-9BBF-6E977E761487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803D5AF-8406-4148-BB01-C8E0A523906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{C723281C-8F4F-46B8-87EC-E0367F0BCC75}"/>
   </bookViews>
@@ -1491,7 +1491,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1736,6 +1736,12 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,8 +1749,6 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,14 +1781,13 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2142,74 +2145,74 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="108" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="110"/>
-      <c r="AM7" s="111" t="s">
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="110"/>
-      <c r="BB7" s="113" t="s">
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="BC7" s="109"/>
-      <c r="BD7" s="109"/>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="109"/>
-      <c r="BI7" s="109"/>
-      <c r="BJ7" s="109"/>
-      <c r="BK7" s="109"/>
-      <c r="BL7" s="109"/>
-      <c r="BM7" s="109"/>
-      <c r="BN7" s="109"/>
-      <c r="BO7" s="109"/>
-      <c r="BP7" s="110"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
+      <c r="BP7" s="112"/>
     </row>
     <row r="8" spans="2:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -2233,90 +2236,90 @@
       <c r="H8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="117" t="s">
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="117" t="s">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="104" t="s">
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="107" t="s">
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107" t="s">
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="119" t="s">
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="114" t="s">
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="114" t="s">
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="115" t="s">
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="106"/>
-      <c r="BG8" s="116" t="s">
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="106"/>
-      <c r="BL8" s="116" t="s">
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="105"/>
+      <c r="BL8" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
-      <c r="BP8" s="106"/>
+      <c r="BM8" s="104"/>
+      <c r="BN8" s="104"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="105"/>
     </row>
     <row r="9" spans="2:68" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
@@ -4544,86 +4547,81 @@
       <c r="BP34" s="40"/>
     </row>
     <row r="36" spans="2:68" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="103"/>
-      <c r="AF36" s="103"/>
-      <c r="AG36" s="103"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="103"/>
-      <c r="AJ36" s="103"/>
-      <c r="AK36" s="103"/>
-      <c r="AL36" s="103"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="103"/>
-      <c r="AO36" s="103"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="103"/>
-      <c r="AU36" s="103"/>
-      <c r="AV36" s="103"/>
-      <c r="AW36" s="103"/>
-      <c r="AX36" s="103"/>
-      <c r="AY36" s="103"/>
-      <c r="AZ36" s="103"/>
-      <c r="BA36" s="103"/>
-      <c r="BB36" s="103"/>
-      <c r="BC36" s="103"/>
-      <c r="BD36" s="103"/>
-      <c r="BE36" s="103"/>
-      <c r="BF36" s="103"/>
-      <c r="BG36" s="103"/>
-      <c r="BH36" s="103"/>
-      <c r="BI36" s="103"/>
-      <c r="BJ36" s="103"/>
-      <c r="BK36" s="103"/>
-      <c r="BL36" s="103"/>
-      <c r="BM36" s="103"/>
-      <c r="BN36" s="103"/>
-      <c r="BO36" s="103"/>
-      <c r="BP36" s="103"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="107"/>
+      <c r="AF36" s="107"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="107"/>
+      <c r="AI36" s="107"/>
+      <c r="AJ36" s="107"/>
+      <c r="AK36" s="107"/>
+      <c r="AL36" s="107"/>
+      <c r="AM36" s="107"/>
+      <c r="AN36" s="107"/>
+      <c r="AO36" s="107"/>
+      <c r="AP36" s="107"/>
+      <c r="AQ36" s="107"/>
+      <c r="AR36" s="107"/>
+      <c r="AS36" s="107"/>
+      <c r="AT36" s="107"/>
+      <c r="AU36" s="107"/>
+      <c r="AV36" s="107"/>
+      <c r="AW36" s="107"/>
+      <c r="AX36" s="107"/>
+      <c r="AY36" s="107"/>
+      <c r="AZ36" s="107"/>
+      <c r="BA36" s="107"/>
+      <c r="BB36" s="107"/>
+      <c r="BC36" s="107"/>
+      <c r="BD36" s="107"/>
+      <c r="BE36" s="107"/>
+      <c r="BF36" s="107"/>
+      <c r="BG36" s="107"/>
+      <c r="BH36" s="107"/>
+      <c r="BI36" s="107"/>
+      <c r="BJ36" s="107"/>
+      <c r="BK36" s="107"/>
+      <c r="BL36" s="107"/>
+      <c r="BM36" s="107"/>
+      <c r="BN36" s="107"/>
+      <c r="BO36" s="107"/>
+      <c r="BP36" s="107"/>
     </row>
     <row r="42" spans="2:68" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="B36:BP36"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AL8"/>
     <mergeCell ref="X7:AL7"/>
     <mergeCell ref="AM7:BA7"/>
     <mergeCell ref="I7:W7"/>
@@ -4636,6 +4634,11 @@
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="N8:R8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="B36:BP36"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AL8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H34">
     <cfRule type="dataBar" priority="2">
@@ -4659,10 +4662,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:BA46"/>
+  <dimension ref="B1:BA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4735,26 +4738,28 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="123" t="s">
+        <v>182</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="112"/>
       <c r="X7" s="121" t="s">
         <v>183</v>
       </c>
@@ -4810,69 +4815,69 @@
       <c r="H8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="117" t="s">
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="117" t="s">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="104" t="s">
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="107" t="s">
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107" t="s">
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="107" t="s">
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="107" t="s">
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="107" t="s">
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="106"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="105"/>
     </row>
     <row r="9" spans="2:53" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
@@ -5104,10 +5109,10 @@
         <v>117</v>
       </c>
       <c r="E11" s="95">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="F11" s="96">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="G11" s="84">
         <f>IF(F11-E11=0,"",F11-E11)</f>
@@ -5173,14 +5178,14 @@
         <v>117</v>
       </c>
       <c r="E12" s="95">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="F12" s="96">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="G12" s="84">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="70">
         <v>0</v>
@@ -5242,14 +5247,14 @@
         <v>117</v>
       </c>
       <c r="E13" s="95">
-        <v>45348</v>
+        <v>45362</v>
       </c>
       <c r="F13" s="96">
-        <v>45350</v>
+        <v>45363</v>
       </c>
       <c r="G13" s="84">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="70">
         <v>0</v>
@@ -5259,8 +5264,8 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -5270,9 +5275,8 @@
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
       <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
+      <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
@@ -5311,10 +5315,10 @@
         <v>117</v>
       </c>
       <c r="E14" s="95">
-        <v>45350</v>
+        <v>45362</v>
       </c>
       <c r="F14" s="96">
-        <v>45351</v>
+        <v>45363</v>
       </c>
       <c r="G14" s="84">
         <f t="shared" si="0"/>
@@ -5330,7 +5334,7 @@
       <c r="M14" s="26"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
-      <c r="P14" s="80"/>
+      <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="26"/>
@@ -5338,8 +5342,8 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
@@ -5441,34 +5445,33 @@
         <v>117</v>
       </c>
       <c r="E16" s="95">
-        <v>45351</v>
+        <v>45342</v>
       </c>
       <c r="F16" s="96">
-        <v>45355</v>
+        <v>45343</v>
       </c>
       <c r="G16" s="84">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="70">
         <v>0</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="26"/>
+      <c r="K16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
-      <c r="X16" s="26"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
@@ -5510,21 +5513,21 @@
         <v>117</v>
       </c>
       <c r="E17" s="95">
-        <v>45355</v>
+        <v>45343</v>
       </c>
       <c r="F17" s="96">
-        <v>45357</v>
+        <v>45344</v>
       </c>
       <c r="G17" s="84">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="70">
         <v>0</v>
       </c>
       <c r="I17" s="65"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="27"/>
@@ -5537,8 +5540,8 @@
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
@@ -5579,20 +5582,20 @@
         <v>117</v>
       </c>
       <c r="E18" s="95">
-        <v>45357</v>
+        <v>45344</v>
       </c>
       <c r="F18" s="96">
-        <v>45359</v>
+        <v>45345</v>
       </c>
       <c r="G18" s="84">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="70">
         <v>0</v>
       </c>
       <c r="I18" s="65"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
@@ -5607,7 +5610,7 @@
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
       <c r="X18" s="25"/>
-      <c r="Y18" s="26"/>
+      <c r="Y18" s="33"/>
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
@@ -5648,21 +5651,21 @@
         <v>117</v>
       </c>
       <c r="E19" s="95">
-        <v>45359</v>
+        <v>45343</v>
       </c>
       <c r="F19" s="96">
-        <v>45363</v>
+        <v>45344</v>
       </c>
       <c r="G19" s="84">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="70">
         <v>0</v>
       </c>
       <c r="I19" s="65"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="K19" s="80"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="27"/>
@@ -5675,8 +5678,8 @@
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="33"/>
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
@@ -5717,21 +5720,21 @@
         <v>117</v>
       </c>
       <c r="E20" s="95">
-        <v>45363</v>
+        <v>45343</v>
       </c>
       <c r="F20" s="96">
-        <v>45365</v>
+        <v>45344</v>
       </c>
       <c r="G20" s="84">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="70">
         <v>0</v>
       </c>
       <c r="I20" s="65"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="K20" s="80"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="27"/>
@@ -5744,8 +5747,8 @@
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="33"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
@@ -5786,21 +5789,21 @@
         <v>117</v>
       </c>
       <c r="E21" s="95">
-        <v>45365</v>
+        <v>45343</v>
       </c>
       <c r="F21" s="96">
-        <v>45370</v>
+        <v>45344</v>
       </c>
       <c r="G21" s="84">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="70">
         <v>0</v>
       </c>
       <c r="I21" s="65"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="K21" s="80"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="27"/>
@@ -5813,12 +5816,12 @@
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
-      <c r="X21" s="25"/>
+      <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
@@ -5855,21 +5858,21 @@
         <v>117</v>
       </c>
       <c r="E22" s="95">
-        <v>45370</v>
+        <v>45343</v>
       </c>
       <c r="F22" s="96">
-        <v>45373</v>
+        <v>45344</v>
       </c>
       <c r="G22" s="84">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="70">
         <v>0</v>
       </c>
       <c r="I22" s="65"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="K22" s="80"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
@@ -5885,12 +5888,12 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="29"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
       <c r="AG22" s="29"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
@@ -5924,21 +5927,21 @@
         <v>117</v>
       </c>
       <c r="E23" s="95">
-        <v>45373</v>
+        <v>45343</v>
       </c>
       <c r="F23" s="96">
-        <v>45378</v>
+        <v>45344</v>
       </c>
       <c r="G23" s="84">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="70">
         <v>0</v>
       </c>
       <c r="I23" s="65"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="K23" s="80"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="27"/>
@@ -5955,14 +5958,14 @@
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
+      <c r="AB23" s="33"/>
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
       <c r="AJ23" s="26"/>
       <c r="AK23" s="26"/>
       <c r="AL23" s="26"/>
@@ -5993,21 +5996,21 @@
         <v>117</v>
       </c>
       <c r="E24" s="95">
-        <v>45378</v>
+        <v>45343</v>
       </c>
       <c r="F24" s="96">
-        <v>45383</v>
+        <v>45344</v>
       </c>
       <c r="G24" s="84">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="70">
         <v>0</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="K24" s="80"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="27"/>
@@ -6025,16 +6028,16 @@
       <c r="Z24" s="26"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
-      <c r="AC24" s="29"/>
+      <c r="AC24" s="33"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="29"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
       <c r="AM24" s="29"/>
       <c r="AN24" s="29"/>
       <c r="AO24" s="29"/>
@@ -6062,14 +6065,14 @@
         <v>117</v>
       </c>
       <c r="E25" s="95">
-        <v>45383</v>
+        <v>45344</v>
       </c>
       <c r="F25" s="96">
-        <v>45386</v>
+        <v>45345</v>
       </c>
       <c r="G25" s="84">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="70">
         <v>0</v>
@@ -6077,7 +6080,7 @@
       <c r="I25" s="65"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="26"/>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
@@ -6095,7 +6098,7 @@
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
+      <c r="AD25" s="33"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
       <c r="AG25" s="29"/>
@@ -6104,9 +6107,9 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="26"/>
       <c r="AL25" s="26"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
       <c r="AP25" s="29"/>
       <c r="AQ25" s="29"/>
       <c r="AR25" s="26"/>
@@ -6131,14 +6134,14 @@
         <v>117</v>
       </c>
       <c r="E26" s="95">
-        <v>45386</v>
+        <v>45344</v>
       </c>
       <c r="F26" s="96">
-        <v>45391</v>
+        <v>45345</v>
       </c>
       <c r="G26" s="84">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="70">
         <v>0</v>
@@ -6146,7 +6149,7 @@
       <c r="I26" s="65"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="26"/>
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
@@ -6165,7 +6168,7 @@
       <c r="AB26" s="26"/>
       <c r="AC26" s="29"/>
       <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
+      <c r="AE26" s="33"/>
       <c r="AF26" s="29"/>
       <c r="AG26" s="29"/>
       <c r="AH26" s="26"/>
@@ -6176,9 +6179,9 @@
       <c r="AM26" s="29"/>
       <c r="AN26" s="29"/>
       <c r="AO26" s="29"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="26"/>
       <c r="AS26" s="26"/>
       <c r="AT26" s="26"/>
       <c r="AU26" s="26"/>
@@ -6261,14 +6264,14 @@
         <v>117</v>
       </c>
       <c r="E28" s="95">
-        <v>45391</v>
+        <v>45345</v>
       </c>
       <c r="F28" s="96">
-        <v>45397</v>
+        <v>45346</v>
       </c>
       <c r="G28" s="84">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28" s="70">
         <v>0</v>
@@ -6277,7 +6280,7 @@
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="M28" s="80"/>
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
@@ -6296,8 +6299,8 @@
       <c r="AC28" s="29"/>
       <c r="AD28" s="29"/>
       <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
       <c r="AJ28" s="26"/>
@@ -6309,10 +6312,10 @@
       <c r="AP28" s="29"/>
       <c r="AQ28" s="29"/>
       <c r="AR28" s="26"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
       <c r="AW28" s="29"/>
       <c r="AX28" s="29"/>
       <c r="AY28" s="29"/>
@@ -6330,14 +6333,14 @@
         <v>117</v>
       </c>
       <c r="E29" s="95">
-        <v>45397</v>
+        <v>45345</v>
       </c>
       <c r="F29" s="96">
-        <v>45401</v>
+        <v>45346</v>
       </c>
       <c r="G29" s="84">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="70">
         <v>0</v>
@@ -6346,7 +6349,7 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
@@ -6366,8 +6369,8 @@
       <c r="AD29" s="29"/>
       <c r="AE29" s="29"/>
       <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="26"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
       <c r="AI29" s="26"/>
       <c r="AJ29" s="26"/>
       <c r="AK29" s="26"/>
@@ -6399,14 +6402,14 @@
         <v>117</v>
       </c>
       <c r="E30" s="95">
-        <v>45401</v>
-      </c>
-      <c r="F30" s="96">
-        <v>45408</v>
+        <v>45348</v>
+      </c>
+      <c r="F30" s="95">
+        <v>45349</v>
       </c>
       <c r="G30" s="84">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H30" s="70">
         <v>0</v>
@@ -6416,7 +6419,7 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="80"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
@@ -6436,8 +6439,8 @@
       <c r="AE30" s="29"/>
       <c r="AF30" s="29"/>
       <c r="AG30" s="29"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
       <c r="AJ30" s="26"/>
       <c r="AK30" s="26"/>
       <c r="AL30" s="26"/>
@@ -6468,14 +6471,14 @@
         <v>117</v>
       </c>
       <c r="E31" s="95">
-        <v>45408</v>
-      </c>
-      <c r="F31" s="96">
-        <v>45418</v>
+        <v>45348</v>
+      </c>
+      <c r="F31" s="95">
+        <v>45349</v>
       </c>
       <c r="G31" s="84">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31" s="70">
         <v>0</v>
@@ -6485,7 +6488,7 @@
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
+      <c r="N31" s="80"/>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
@@ -6508,8 +6511,8 @@
       <c r="AF31" s="29"/>
       <c r="AG31" s="29"/>
       <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
       <c r="AK31" s="26"/>
       <c r="AL31" s="26"/>
       <c r="AM31" s="29"/>
@@ -6539,21 +6542,21 @@
         <v>117</v>
       </c>
       <c r="E32" s="95">
-        <v>45418</v>
+        <v>45343</v>
       </c>
       <c r="F32" s="96">
-        <v>45425</v>
+        <v>45344</v>
       </c>
       <c r="G32" s="84">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H32" s="70">
         <v>0</v>
       </c>
       <c r="I32" s="65"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="K32" s="80"/>
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
       <c r="N32" s="27"/>
@@ -6578,8 +6581,8 @@
       <c r="AG32" s="29"/>
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
       <c r="AL32" s="26"/>
       <c r="AM32" s="29"/>
       <c r="AN32" s="29"/>
@@ -6669,14 +6672,14 @@
         <v>117</v>
       </c>
       <c r="E34" s="95">
-        <v>45425</v>
+        <v>45349</v>
       </c>
       <c r="F34" s="96">
-        <v>45434</v>
+        <v>45351</v>
       </c>
       <c r="G34" s="84">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H34" s="70">
         <v>0</v>
@@ -6687,8 +6690,8 @@
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="26"/>
@@ -6709,9 +6712,9 @@
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
       <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="29"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="33"/>
       <c r="AN34" s="29"/>
       <c r="AO34" s="29"/>
       <c r="AP34" s="29"/>
@@ -6738,14 +6741,14 @@
         <v>117</v>
       </c>
       <c r="E35" s="95">
-        <v>45434</v>
-      </c>
-      <c r="F35" s="96">
-        <v>45443</v>
+        <v>45350</v>
+      </c>
+      <c r="F35" s="95">
+        <v>45352</v>
       </c>
       <c r="G35" s="84">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H35" s="70">
         <v>0</v>
@@ -6757,8 +6760,8 @@
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
       <c r="R35" s="27"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
@@ -6780,9 +6783,9 @@
       <c r="AJ35" s="26"/>
       <c r="AK35" s="26"/>
       <c r="AL35" s="26"/>
-      <c r="AM35" s="29"/>
-      <c r="AN35" s="29"/>
-      <c r="AO35" s="29"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
       <c r="AP35" s="29"/>
       <c r="AQ35" s="29"/>
       <c r="AR35" s="26"/>
@@ -6807,14 +6810,14 @@
         <v>117</v>
       </c>
       <c r="E36" s="95">
-        <v>45443</v>
-      </c>
-      <c r="F36" s="96">
-        <v>45454</v>
+        <v>45351</v>
+      </c>
+      <c r="F36" s="95">
+        <v>45353</v>
       </c>
       <c r="G36" s="84">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H36" s="70">
         <v>0</v>
@@ -6827,8 +6830,8 @@
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
@@ -6851,9 +6854,9 @@
       <c r="AL36" s="26"/>
       <c r="AM36" s="29"/>
       <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="29"/>
-      <c r="AQ36" s="29"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
       <c r="AR36" s="26"/>
       <c r="AS36" s="26"/>
       <c r="AT36" s="26"/>
@@ -6870,20 +6873,20 @@
         <v>71</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>117</v>
       </c>
       <c r="E37" s="95">
-        <v>45443</v>
-      </c>
-      <c r="F37" s="96">
-        <v>45454</v>
+        <v>45352</v>
+      </c>
+      <c r="F37" s="95">
+        <v>45353</v>
       </c>
       <c r="G37" s="84">
         <f t="shared" ref="G37" si="1">IF(F37-E37=0,"",F37-E37)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H37" s="70">
         <v>0</v>
@@ -6897,7 +6900,7 @@
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
+      <c r="R37" s="80"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
@@ -6922,9 +6925,9 @@
       <c r="AN37" s="29"/>
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
       <c r="AT37" s="26"/>
       <c r="AU37" s="26"/>
       <c r="AV37" s="28"/>
@@ -6945,14 +6948,14 @@
         <v>117</v>
       </c>
       <c r="E38" s="95">
-        <v>45342</v>
-      </c>
-      <c r="F38" s="96">
-        <v>45359</v>
+        <v>45352</v>
+      </c>
+      <c r="F38" s="95">
+        <v>45355</v>
       </c>
       <c r="G38" s="84">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H38" s="70">
         <v>0</v>
@@ -6969,9 +6972,7 @@
       <c r="R38" s="80"/>
       <c r="S38" s="80"/>
       <c r="T38" s="26"/>
-      <c r="U38" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="U38" s="26"/>
       <c r="V38" s="26"/>
       <c r="W38" s="28"/>
       <c r="X38" s="25"/>
@@ -6995,9 +6996,9 @@
       <c r="AP38" s="29"/>
       <c r="AQ38" s="29"/>
       <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="26"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="33"/>
       <c r="AV38" s="28"/>
       <c r="AW38" s="29"/>
       <c r="AX38" s="29"/>
@@ -7016,14 +7017,14 @@
         <v>117</v>
       </c>
       <c r="E39" s="97">
-        <v>45342</v>
+        <v>45355</v>
       </c>
       <c r="F39" s="98">
-        <v>45429</v>
+        <v>45358</v>
       </c>
       <c r="G39" s="84">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="H39" s="72">
         <v>0</v>
@@ -7066,28 +7067,31 @@
       <c r="AR39" s="35"/>
       <c r="AS39" s="35"/>
       <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="37"/>
-      <c r="AW39" s="38"/>
+      <c r="AU39" s="33"/>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="33"/>
       <c r="AX39" s="38"/>
       <c r="AY39" s="38"/>
       <c r="AZ39" s="38"/>
       <c r="BA39" s="38"/>
     </row>
     <row r="40" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="U40" s="120"/>
-      <c r="AW40" s="120"/>
+      <c r="U40" s="102"/>
+      <c r="AW40" s="102"/>
     </row>
     <row r="41" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="U41" s="120" t="s">
+      <c r="U41" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="AW41" s="120" t="s">
+      <c r="AW41" s="102" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:53" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C46" s="3"/>
+    </row>
+    <row r="1048576" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y1048576" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7113,7 +7117,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
